--- a/CrossTalkModel/data/HardCopy/AZD_calculations - v2.xlsx
+++ b/CrossTalkModel/data/HardCopy/AZD_calculations - v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MesiSTRAT\CrossTalkModel\data\HardCopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AB0715-6957-4F65-813C-3F8A4F135EE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06341AE9-9F00-4E17-AA99-CF0D966A6F45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="870" windowWidth="27315" windowHeight="13620" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="870" windowWidth="27315" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMAD2-pS465-467" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="27">
   <si>
     <t>DMSO</t>
   </si>
@@ -361,14 +361,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -714,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L15" sqref="A15:XFD41"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1.1088259990762013</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1.1034587276110426</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1.0223705201442044</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1.0070453175823459</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0.96686744125617785</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.85742443918446565</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0.91565134286100425</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.91254899171210646</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0.97242191741233197</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0.98988554370343373</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>5</v>
       </c>
@@ -1705,9 +1705,9 @@
         <v>1.1434997594566845</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1726,13 +1726,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
       <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
@@ -1763,8 +1763,11 @@
       <c r="K30" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -1793,8 +1796,12 @@
         <v>0.23626309612789551</v>
       </c>
       <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <f>AVERAGE(B31,D31,F31,H31,J31)</f>
+        <v>0.21509228406177372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
@@ -1823,8 +1830,12 @@
         <v>0.32197638416668511</v>
       </c>
       <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <f t="shared" ref="M32:M41" si="7">AVERAGE(B32,D32,F32,H32,J32)</f>
+        <v>0.34018690743914387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
@@ -1853,8 +1864,12 @@
         <v>1.227066179424728</v>
       </c>
       <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2285553326678857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
@@ -1883,8 +1898,12 @@
         <v>1.4184334866178234</v>
       </c>
       <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <f>AVERAGE(D34,F34,H34,J34)</f>
+        <v>1.3825441296092513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
@@ -1913,8 +1932,12 @@
         <v>1.4665635364430401</v>
       </c>
       <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="1">
+        <f t="shared" si="7"/>
+        <v>1.57468489757061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +1966,12 @@
         <v>1.5395492192650257</v>
       </c>
       <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3855253753296723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
@@ -1973,8 +2000,12 @@
         <v>1.2168027833744657</v>
       </c>
       <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1133740116569633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>9</v>
       </c>
@@ -2003,8 +2034,12 @@
         <v>1.4477662258462558</v>
       </c>
       <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" s="1">
+        <f>AVERAGE(D38,F38,H38,J38)</f>
+        <v>1.4196249869006783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
@@ -2033,8 +2068,12 @@
         <v>1.2553071267022067</v>
       </c>
       <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3525412363633618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>4</v>
       </c>
@@ -2063,8 +2102,12 @@
         <v>0.86630512923137371</v>
       </c>
       <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1336183883387998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>5</v>
       </c>
@@ -2093,15 +2136,13 @@
         <v>0.39197134355224833</v>
       </c>
       <c r="K41" s="23"/>
+      <c r="M41" s="1">
+        <f t="shared" si="7"/>
+        <v>0.51682986348440196</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -2114,6 +2155,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2121,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2183,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -2155,13 +2202,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2629,7 +2676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +2721,7 @@
         <v>1.1088259990762013</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
@@ -2719,7 +2766,7 @@
         <v>1.1034587276110426</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2811,7 @@
         <v>1.0223705201442044</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
@@ -2803,7 +2850,7 @@
         <v>1.0070453175823459</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
@@ -2848,7 +2895,7 @@
         <v>0.96686744125617785</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2940,7 @@
         <v>0.85742443918446565</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2985,7 @@
         <v>0.91565134286100425</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +3024,7 @@
         <v>0.91254899171210646</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>10</v>
       </c>
@@ -3022,7 +3069,7 @@
         <v>0.97242191741233197</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +3114,7 @@
         <v>0.98988554370343373</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>5</v>
       </c>
@@ -3112,9 +3159,9 @@
         <v>1.1434997594566845</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -3133,13 +3180,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
@@ -3170,8 +3217,11 @@
       <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -3200,8 +3250,12 @@
         <v>2.0279084250485697</v>
       </c>
       <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <f>AVERAGE(B31,D31,F31,H31,J31)</f>
+        <v>1.6505159414354686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
@@ -3230,8 +3284,12 @@
         <v>3.1825414515758403</v>
       </c>
       <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <f t="shared" ref="L32:L41" si="7">AVERAGE(B32,D32,F32,H32,J32)</f>
+        <v>2.1004554841206273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
@@ -3260,8 +3318,12 @@
         <v>4.0116049835734078</v>
       </c>
       <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <f t="shared" si="7"/>
+        <v>3.912246235887757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
@@ -3290,8 +3352,12 @@
         <v>0.22617742884788106</v>
       </c>
       <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <f>AVERAGE(D34,F34,H34,J34)</f>
+        <v>1.0665014160064596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
@@ -3320,8 +3386,12 @@
         <v>0.21193912038028462</v>
       </c>
       <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <f t="shared" si="7"/>
+        <v>0.5163018348808297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>3</v>
       </c>
@@ -3350,8 +3420,12 @@
         <v>0.13269041377825963</v>
       </c>
       <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47453487596586419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
@@ -3380,8 +3454,12 @@
         <v>5.6611870176388468E-2</v>
       </c>
       <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <f t="shared" si="7"/>
+        <v>8.9639434276874153E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>9</v>
       </c>
@@ -3410,8 +3488,12 @@
         <v>0.22829456178319199</v>
       </c>
       <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <f>AVERAGE(D38,F38,H38,J38)</f>
+        <v>0.33957680258861284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
@@ -3440,8 +3522,12 @@
         <v>0.19618300180065712</v>
       </c>
       <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <f t="shared" si="7"/>
+        <v>0.24277511736649759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>4</v>
       </c>
@@ -3470,8 +3556,12 @@
         <v>7.7880097590103572E-2</v>
       </c>
       <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="1">
+        <f t="shared" si="7"/>
+        <v>0.13407996941521153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>5</v>
       </c>
@@ -3500,15 +3590,13 @@
         <v>5.5759434746529106E-2</v>
       </c>
       <c r="K41" s="23"/>
+      <c r="L41" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5339431491895116E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -3521,6 +3609,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3543,7 +3637,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -3562,13 +3656,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4615,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -4540,13 +4634,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -4910,12 +5004,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -4928,6 +5016,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4950,7 +5044,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -4969,13 +5063,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
@@ -5910,7 +6004,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -5929,13 +6023,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -6299,12 +6393,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -6317,6 +6405,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6340,7 +6434,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -6359,13 +6453,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
@@ -7300,7 +7394,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -7319,13 +7413,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
@@ -7689,12 +7783,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -7707,6 +7795,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7729,7 +7823,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -7748,13 +7842,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
@@ -8667,7 +8761,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -8686,13 +8780,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -9051,2802 +9145,6 @@
       <c r="J41" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
-        <v>4217046.21</v>
-      </c>
-      <c r="C3" s="15">
-        <v>714156.42</v>
-      </c>
-      <c r="D3" s="7">
-        <v>210192.6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4862161</v>
-      </c>
-      <c r="F3" s="5">
-        <v>421552.8</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1949604.11</v>
-      </c>
-      <c r="H3" s="5">
-        <v>90780.86</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2267374.77</v>
-      </c>
-      <c r="J3" s="7">
-        <v>622625.88</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1599820.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20">
-        <v>4754341.68</v>
-      </c>
-      <c r="C4" s="6">
-        <v>734768</v>
-      </c>
-      <c r="D4" s="7">
-        <v>194120.85</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4009038.79</v>
-      </c>
-      <c r="F4" s="5">
-        <v>475748.56</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1700931.41</v>
-      </c>
-      <c r="H4" s="5">
-        <v>128927.27</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2536239.14</v>
-      </c>
-      <c r="J4" s="7">
-        <v>588669</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1592076.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20">
-        <v>6983216.5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>582733.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>378812</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2404310.9300000002</v>
-      </c>
-      <c r="F5" s="5">
-        <v>622702.71</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1548772.1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>654336.37</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2081750.27</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1100622.6299999999</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1475082.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
-        <v>281093</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2860570.43</v>
-      </c>
-      <c r="F6" s="5">
-        <v>391631.8</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1343389.5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>281768.84000000003</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1845781.78</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1367934.96</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1452970.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20">
-        <v>5777668.6200000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>647454</v>
-      </c>
-      <c r="D7" s="7">
-        <v>438023.26</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2874482.9</v>
-      </c>
-      <c r="F7" s="5">
-        <v>622711</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1408938</v>
-      </c>
-      <c r="H7" s="5">
-        <v>333860.59999999998</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1890861.45</v>
-      </c>
-      <c r="J7" s="7">
-        <v>982141.69</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1395001.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20">
-        <v>7677360.8600000003</v>
-      </c>
-      <c r="C8" s="6">
-        <v>626369</v>
-      </c>
-      <c r="D8" s="7">
-        <v>417608.5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3095113.75</v>
-      </c>
-      <c r="F8" s="5">
-        <v>452001.26</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1481005.43</v>
-      </c>
-      <c r="H8" s="5">
-        <v>276823.64</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2036508.13</v>
-      </c>
-      <c r="J8" s="7">
-        <v>815585</v>
-      </c>
-      <c r="K8" s="22">
-        <v>1237096.8899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20">
-        <v>5878595.2000000002</v>
-      </c>
-      <c r="C9" s="6">
-        <v>512648.44</v>
-      </c>
-      <c r="D9" s="7">
-        <v>618048.75</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2690879.15</v>
-      </c>
-      <c r="F9" s="5">
-        <v>632681.38</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1380243.19</v>
-      </c>
-      <c r="H9" s="5">
-        <v>463686.96</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1831896</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1175324.72</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1321107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
-        <v>105166.78</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2775637.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>356837.1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1467368.98</v>
-      </c>
-      <c r="H10" s="5">
-        <v>78624.820000000007</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1802235.87</v>
-      </c>
-      <c r="J10" s="7">
-        <v>403589.3</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1316630.9099999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1510360.29</v>
-      </c>
-      <c r="C11" s="6">
-        <v>592783.67000000004</v>
-      </c>
-      <c r="D11" s="7">
-        <v>110149.1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2988664</v>
-      </c>
-      <c r="F11" s="5">
-        <v>383492</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1616269.35</v>
-      </c>
-      <c r="H11" s="5">
-        <v>56391.37</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2130757.31</v>
-      </c>
-      <c r="J11" s="7">
-        <v>452409.19</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1403015.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2480602.96</v>
-      </c>
-      <c r="C12" s="6">
-        <v>434085.5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>125202.09</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2768338</v>
-      </c>
-      <c r="F12" s="5">
-        <v>404186.5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1452900.94</v>
-      </c>
-      <c r="H12" s="5">
-        <v>50328.86</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1968774.89</v>
-      </c>
-      <c r="J12" s="7">
-        <v>471957.29</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1428212.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21">
-        <v>6635884</v>
-      </c>
-      <c r="C13" s="9">
-        <v>401079.08</v>
-      </c>
-      <c r="D13" s="10">
-        <v>113128.04</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3366249.69</v>
-      </c>
-      <c r="F13" s="8">
-        <v>398358</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1710223.5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>81242</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2235262.5299999998</v>
-      </c>
-      <c r="J13" s="10">
-        <v>715926.57</v>
-      </c>
-      <c r="K13" s="23">
-        <v>1649848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="20">
-        <f>B3/AVERAGE(B$3:B$13)</f>
-        <v>0.82660030063955259</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
-        <v>1.2251835100091093</v>
-      </c>
-      <c r="D17" s="20">
-        <f>D3/AVERAGE(D$3:D$13)</f>
-        <v>0.7728844537476568</v>
-      </c>
-      <c r="E17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.5415213507901591</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.89832774873606658</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.2570978652710667</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.39995226796056266</v>
-      </c>
-      <c r="I17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1022510770631895</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.78751903276343949</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1088259990762013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="20">
-        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
-        <v>0.93191776099393397</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2605440657977607</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.71378815007417395</v>
-      </c>
-      <c r="E18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2710436554714961</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0138187502709637</v>
-      </c>
-      <c r="G18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0967545839260184</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.56801350018565377</v>
-      </c>
-      <c r="I18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2329555575652884</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.74456918093064361</v>
-      </c>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1034587276110426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3688085382235078</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99971862596977468</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3929030122518935</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.76227353074757165</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.326977601871338</v>
-      </c>
-      <c r="G19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99864279661443012</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="1"/>
-        <v>2.8828027757236696</v>
-      </c>
-      <c r="I19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0120124417209093</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3921060734178812</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0223705201442044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0335873373148725</v>
-      </c>
-      <c r="E20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.9069280908805748</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.83456618774078473</v>
-      </c>
-      <c r="G20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.86621281931825922</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2413859771610107</v>
-      </c>
-      <c r="I20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.89729981207677056</v>
-      </c>
-      <c r="J20" s="20">
-        <f>J6/AVERAGE(J$3:J$13)</f>
-        <v>1.7302120762832638</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0070453175823459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1325042175166748</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1107510092669024</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.6106245797134049</v>
-      </c>
-      <c r="E21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91133896282562699</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.326995267836401</v>
-      </c>
-      <c r="G21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.90847826131187526</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4708860893438795</v>
-      </c>
-      <c r="I21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91921463421759964</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2422472283764527</v>
-      </c>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.96686744125617785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20">
-        <f>B8/AVERAGE(B$3:B$13)</f>
-        <v>1.5048705845208972</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0745782695349793</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.5355588988521875</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98128875797185544</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.96321332540470739</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95494708641533277</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2195989621942152</v>
-      </c>
-      <c r="I22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99001863716620686</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0315804899346135</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85742443918446565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1522872450710544</v>
-      </c>
-      <c r="C23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87948297814069121</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="1"/>
-        <v>2.2725836710387144</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85312840568649917</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3482421176247148</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88997594886272946</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" si="1"/>
-        <v>2.042860700765984</v>
-      </c>
-      <c r="I23" s="29">
-        <f>I9/AVERAGE(I$3:I$13)</f>
-        <v>0.89054944325227203</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4865918947624861</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91565134286100425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.38670138393406805</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88000057347007221</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.76041878670597529</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94615435147137761</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3463965320111641</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87613060492395545</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.51047389030740842</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91254899171210646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.29605183524608375</v>
-      </c>
-      <c r="C25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0169603705119414</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.40502152304265721</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94753945135463835</v>
-      </c>
-      <c r="F25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.81722029842594246</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0421647857461966</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.24844285816308895</v>
-      </c>
-      <c r="I25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0358364973372991</v>
-      </c>
-      <c r="J25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.57222299805798493</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.97242191741233197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.48623302909060701</v>
-      </c>
-      <c r="C26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.74470295531903108</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46037181583802167</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.8776863072209512</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.86132021567526107</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.93682541022357912</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.22173332243018676</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95709111334843955</v>
-      </c>
-      <c r="J26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.59694811999535602</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98988554370343373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21">
-        <f t="shared" si="1"/>
-        <v>1.3007264886976888</v>
-      </c>
-      <c r="C27" s="30">
-        <f t="shared" si="1"/>
-        <v>0.68807821544980918</v>
-      </c>
-      <c r="D27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.41597517419235053</v>
-      </c>
-      <c r="E27" s="30">
-        <f>E13/AVERAGE(E$3:E$13)</f>
-        <v>1.0672509135805568</v>
-      </c>
-      <c r="F27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.84889969970784684</v>
-      </c>
-      <c r="G27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1027460908391356</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.35792701406058536</v>
-      </c>
-      <c r="I27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.0866401813280693</v>
-      </c>
-      <c r="J27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.90552901517046935</v>
-      </c>
-      <c r="K27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1434997594566845</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="19">
-        <f>B17/$C17</f>
-        <v>0.67467468659728103</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="19">
-        <f>D17/$E17</f>
-        <v>0.50137771582047086</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19">
-        <f>F17/$G17</f>
-        <v>0.71460446601137229</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="19">
-        <f>H17/$I17</f>
-        <v>0.36285042154477687</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19">
-        <f>J17/$K17</f>
-        <v>0.71022778453927582</v>
-      </c>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20">
-        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
-        <v>0.73929804302727886</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="20">
-        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
-        <v>0.56157642343873138</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20">
-        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
-        <v>0.92438068199526291</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="20">
-        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
-        <v>0.46069259893463427</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="20">
-        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
-        <v>0.67475942896624252</v>
-      </c>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="20">
-        <f t="shared" si="2"/>
-        <v>1.3691937937994287</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="20">
-        <f t="shared" si="3"/>
-        <v>1.8273007733665567</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="20">
-        <f t="shared" si="4"/>
-        <v>1.3287810279811951</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="20">
-        <f t="shared" si="5"/>
-        <v>2.8485843225618002</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="20">
-        <f t="shared" si="6"/>
-        <v>1.3616453584963757</v>
-      </c>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1396574300739972</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20">
-        <f t="shared" si="4"/>
-        <v>0.96346552386239037</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="20">
-        <f>H20/$I20</f>
-        <v>1.3834684466141414</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="20">
-        <f t="shared" si="6"/>
-        <v>1.7181074635618716</v>
-      </c>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="20">
-        <f t="shared" si="2"/>
-        <v>1.0195842345118638</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7673167124552944</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="20">
-        <f>F21/$G21</f>
-        <v>1.4606791646507558</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="20">
-        <f t="shared" si="5"/>
-        <v>1.6001552135816914</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2848164860764106</v>
-      </c>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="20">
-        <f t="shared" si="2"/>
-        <v>1.4004290121855207</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="20">
-        <f t="shared" si="3"/>
-        <v>1.5648389797371236</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20">
-        <f t="shared" si="4"/>
-        <v>1.0086562272475266</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="20">
-        <f t="shared" si="5"/>
-        <v>1.2318949526901337</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2031153333065656</v>
-      </c>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="20">
-        <f t="shared" si="2"/>
-        <v>1.3101870914057903</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="20">
-        <f t="shared" si="3"/>
-        <v>2.6638237056589409</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="20">
-        <f t="shared" si="4"/>
-        <v>1.5149197226594588</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="20">
-        <f t="shared" si="5"/>
-        <v>2.2939329379685987</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="20">
-        <f t="shared" si="6"/>
-        <v>1.6235348818662199</v>
-      </c>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="20">
-        <f t="shared" si="3"/>
-        <v>0.43943310446856126</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="20">
-        <f t="shared" si="4"/>
-        <v>0.80369422338272567</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="20">
-        <f t="shared" si="5"/>
-        <v>0.39537088427727041</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="20">
-        <f t="shared" si="6"/>
-        <v>0.55939340785382641</v>
-      </c>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="20">
-        <f t="shared" si="2"/>
-        <v>0.2911144267077489</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="20">
-        <f t="shared" si="3"/>
-        <v>0.42744555117322353</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="20">
-        <f>F25/$G25</f>
-        <v>0.78415650730398412</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="20">
-        <f t="shared" si="5"/>
-        <v>0.23984756165836141</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="20">
-        <f t="shared" si="6"/>
-        <v>0.58845135821362571</v>
-      </c>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="20">
-        <f t="shared" si="2"/>
-        <v>0.65292211561360669</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.52452888013681453</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="20">
-        <f t="shared" si="4"/>
-        <v>0.91940313133660811</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="20">
-        <f t="shared" si="5"/>
-        <v>0.23167420461615162</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="20">
-        <f>J26/$K26</f>
-        <v>0.60304761878025726</v>
-      </c>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21">
-        <f t="shared" si="2"/>
-        <v>1.8903759187425813</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="21">
-        <f t="shared" si="3"/>
-        <v>0.38976324020822911</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21">
-        <f t="shared" si="4"/>
-        <v>0.76980522239881699</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="21">
-        <f t="shared" si="5"/>
-        <v>0.32938871598060576</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="21">
-        <f t="shared" si="6"/>
-        <v>0.791892615351941</v>
-      </c>
-      <c r="K41" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="15">
-        <v>714156.42</v>
-      </c>
-      <c r="D3" s="25">
-        <v>4916886</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4862161</v>
-      </c>
-      <c r="F3" s="27">
-        <v>4142803.59</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1949604.11</v>
-      </c>
-      <c r="H3" s="27">
-        <v>14111782.65</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2267374.77</v>
-      </c>
-      <c r="J3" s="25">
-        <v>3727127.2</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1599820.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="6">
-        <v>734768</v>
-      </c>
-      <c r="D4" s="25">
-        <v>4745497.79</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4009038.79</v>
-      </c>
-      <c r="F4" s="27">
-        <v>4212600.8899999997</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1700931.41</v>
-      </c>
-      <c r="H4" s="27">
-        <v>17219795.82</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2536239.14</v>
-      </c>
-      <c r="J4" s="25">
-        <v>5904737</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1592076.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="6">
-        <v>582733.5</v>
-      </c>
-      <c r="D5" s="25">
-        <v>5299589.74</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2404310.9300000002</v>
-      </c>
-      <c r="F5" s="27">
-        <v>3873284.97</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1548772.1</v>
-      </c>
-      <c r="H5" s="27">
-        <v>18008572.829999998</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2081750.27</v>
-      </c>
-      <c r="J5" s="25">
-        <v>5757799.6299999999</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1475082.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="25">
-        <v>4577737</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2860570.43</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1275158.55</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1343389.5</v>
-      </c>
-      <c r="H6" s="27">
-        <v>11182866.84</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1845781.78</v>
-      </c>
-      <c r="J6" s="25">
-        <v>5244651.59</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1452970.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="6">
-        <v>647454</v>
-      </c>
-      <c r="D7" s="25">
-        <v>4353043.3499999996</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2874482.9</v>
-      </c>
-      <c r="F7" s="27">
-        <v>3900238</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1408938</v>
-      </c>
-      <c r="H7" s="27">
-        <v>12484918.83</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1890861.45</v>
-      </c>
-      <c r="J7" s="25">
-        <v>5018180.5</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1395001.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="6">
-        <v>626369</v>
-      </c>
-      <c r="D8" s="25">
-        <v>5197544.5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3095113.75</v>
-      </c>
-      <c r="F8" s="27">
-        <v>2419767.4500000002</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1481005.43</v>
-      </c>
-      <c r="H8" s="27">
-        <v>19080240.5</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2036508.13</v>
-      </c>
-      <c r="J8" s="25">
-        <v>5013194.43</v>
-      </c>
-      <c r="K8" s="22">
-        <v>1237096.8899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="6">
-        <v>512648.44</v>
-      </c>
-      <c r="D9" s="25">
-        <v>3974559.06</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2690879.15</v>
-      </c>
-      <c r="F9" s="27">
-        <v>5908671.8899999997</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1380243.19</v>
-      </c>
-      <c r="H9" s="27">
-        <v>15143825.33</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1831896</v>
-      </c>
-      <c r="J9" s="25">
-        <v>4651801</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1321107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="25">
-        <v>1826352.11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2775637.5</v>
-      </c>
-      <c r="F10" s="27">
-        <v>2708206.83</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1467368.98</v>
-      </c>
-      <c r="H10" s="27">
-        <v>6436700.4100000001</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1802235.87</v>
-      </c>
-      <c r="J10" s="25">
-        <v>2243313</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1316630.9099999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="6">
-        <v>592783.67000000004</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1927485.59</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2988664</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1311270.26</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1616269.35</v>
-      </c>
-      <c r="H11" s="27">
-        <v>6376397.4699999997</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2130757.31</v>
-      </c>
-      <c r="J11" s="25">
-        <v>1703210.63</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1403015.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="6">
-        <v>434085.5</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1900233.71</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2768338</v>
-      </c>
-      <c r="F12" s="27">
-        <v>2772072.54</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1452900.94</v>
-      </c>
-      <c r="H12" s="27">
-        <v>5751976.54</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1968774.89</v>
-      </c>
-      <c r="J12" s="25">
-        <v>4052400.45</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1428212.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="9">
-        <v>401079.08</v>
-      </c>
-      <c r="D13" s="26">
-        <v>1310147.42</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3366249.69</v>
-      </c>
-      <c r="F13" s="28">
-        <v>4632642.05</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1710223.5</v>
-      </c>
-      <c r="H13" s="28">
-        <v>11259670.77</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2235262.5299999998</v>
-      </c>
-      <c r="J13" s="26">
-        <v>6456586.5</v>
-      </c>
-      <c r="K13" s="23">
-        <v>1649848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="20" t="e">
-        <f>B3/AVERAGE(B$3:B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
-        <v>1.2251835100091093</v>
-      </c>
-      <c r="D17" s="20">
-        <f>D3/AVERAGE(D$3:D$13)</f>
-        <v>1.3511614815986857</v>
-      </c>
-      <c r="E17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.5415213507901591</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>1.226449566722243</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.2570978652710667</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="0"/>
-        <v>1.1325936987891025</v>
-      </c>
-      <c r="I17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1022510770631895</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.82370758463914895</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1088259990762013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="20" t="e">
-        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2605440657977607</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3040639593555123</v>
-      </c>
-      <c r="E18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2710436554714961</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2471125951482134</v>
-      </c>
-      <c r="G18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0967545839260184</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3820388765814025</v>
-      </c>
-      <c r="I18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2329555575652884</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3049666381655594</v>
-      </c>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1034587276110426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99971862596977468</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4563285634370196</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.76227353074757165</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1466603641830573</v>
-      </c>
-      <c r="G19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99864279661443012</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.445345114597739</v>
-      </c>
-      <c r="I19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0120124417209093</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2724929876456821</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0223705201442044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2579632530201275</v>
-      </c>
-      <c r="E20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.9069280908805748</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.37750224387288994</v>
-      </c>
-      <c r="G20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.86621281931825922</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89752264696208328</v>
-      </c>
-      <c r="I20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.89729981207677056</v>
-      </c>
-      <c r="J20" s="20">
-        <f>J6/AVERAGE(J$3:J$13)</f>
-        <v>1.1590855534720608</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0070453175823459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1107510092669024</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.196217382760004</v>
-      </c>
-      <c r="E21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91133896282562699</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1546396302156405</v>
-      </c>
-      <c r="G21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.90847826131187526</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0020236810231353</v>
-      </c>
-      <c r="I21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91921463421759964</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1090346846596157</v>
-      </c>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.96686744125617785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20" t="e">
-        <f>B8/AVERAGE(B$3:B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0745782695349793</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4282865063975654</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98128875797185544</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.71635612844032692</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95494708641533277</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.5313557966172782</v>
-      </c>
-      <c r="I22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99001863716620686</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1079327465029192</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85742443918446565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87948297814069121</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0922098068190069</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85312840568649917</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.7492231823122459</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88997594886272946</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2154241295886741</v>
-      </c>
-      <c r="I23" s="29">
-        <f>I9/AVERAGE(I$3:I$13)</f>
-        <v>0.89054944325227203</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0280635890108547</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91565134286100425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.50188200883007772</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88000057347007221</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.80174669667304199</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94615435147137761</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.51660137533079376</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87613060492395545</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.4957796806128868</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91254899171210646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0169603705119414</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52967351399737894</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94753945135463835</v>
-      </c>
-      <c r="F25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3881928764652739</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0421647857461966</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.5117615381850269</v>
-      </c>
-      <c r="I25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0358364973372991</v>
-      </c>
-      <c r="J25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.37641524930220333</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.97242191741233197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.74470295531903108</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52218469067360251</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.8776863072209512</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.82065371716201196</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.93682541022357912</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46164630977977428</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95709111334843955</v>
-      </c>
-      <c r="J26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89559406146913911</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98988554370343373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27" s="30">
-        <f t="shared" si="1"/>
-        <v>0.68807821544980918</v>
-      </c>
-      <c r="D27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.36002883311101685</v>
-      </c>
-      <c r="E27" s="30">
-        <f>E13/AVERAGE(E$3:E$13)</f>
-        <v>1.0672509135805568</v>
-      </c>
-      <c r="F27" s="21">
-        <f t="shared" si="1"/>
-        <v>1.3714629988050542</v>
-      </c>
-      <c r="G27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1027460908391356</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.90368683254498972</v>
-      </c>
-      <c r="I27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.0866401813280693</v>
-      </c>
-      <c r="J27" s="21">
-        <f t="shared" si="1"/>
-        <v>1.4269272245199296</v>
-      </c>
-      <c r="K27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1434997594566845</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="19" t="e">
-        <f>B17/$C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="19">
-        <f>D17/$E17</f>
-        <v>0.87651168821379088</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19">
-        <f>F17/$G17</f>
-        <v>0.97561979906614904</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="19">
-        <f>H17/$I17</f>
-        <v>1.0275278676132096</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19">
-        <f>J17/$K17</f>
-        <v>0.74286460213361372</v>
-      </c>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20" t="e">
-        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="20">
-        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
-        <v>1.0259788904510658</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20">
-        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
-        <v>1.1370935790247285</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="20">
-        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
-        <v>1.120915403723479</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="20">
-        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
-        <v>1.1826148142312272</v>
-      </c>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="20">
-        <f t="shared" si="3"/>
-        <v>1.9105065369497731</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="20">
-        <f t="shared" si="4"/>
-        <v>1.1482187305315095</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="20">
-        <f t="shared" si="5"/>
-        <v>1.4281890765492518</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2446495302566023</v>
-      </c>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="20">
-        <f t="shared" si="3"/>
-        <v>1.3870595316975107</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20">
-        <f t="shared" si="4"/>
-        <v>0.43580773160341574</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="20">
-        <f>H20/$I20</f>
-        <v>1.0002483393870294</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="20">
-        <f t="shared" si="6"/>
-        <v>1.1509765580904778</v>
-      </c>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="20">
-        <f t="shared" si="3"/>
-        <v>1.3125932628306651</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="20">
-        <f>F21/$G21</f>
-        <v>1.2709601092141702</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="20">
-        <f t="shared" si="5"/>
-        <v>1.0900867367891935</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="20">
-        <f t="shared" si="6"/>
-        <v>1.1470390224524789</v>
-      </c>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4555211142432454</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20">
-        <f t="shared" si="4"/>
-        <v>0.75015269288833031</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="20">
-        <f t="shared" si="5"/>
-        <v>1.5467949179225302</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2921637124744463</v>
-      </c>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="20">
-        <f t="shared" si="3"/>
-        <v>1.2802408166682981</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="20">
-        <f t="shared" si="4"/>
-        <v>1.9654724204036298</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="20">
-        <f t="shared" si="5"/>
-        <v>1.3648025258990282</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="20">
-        <f t="shared" si="6"/>
-        <v>1.1227675217497219</v>
-      </c>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="20">
-        <f t="shared" si="3"/>
-        <v>0.57032009291883279</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="20">
-        <f t="shared" si="4"/>
-        <v>0.847374104897615</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="20">
-        <f t="shared" si="5"/>
-        <v>0.58963968662598276</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="20">
-        <f t="shared" si="6"/>
-        <v>0.54329102888242164</v>
-      </c>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="20">
-        <f t="shared" si="3"/>
-        <v>0.55899890314871592</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="20">
-        <f>F25/$G25</f>
-        <v>0.37248704022111562</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="20">
-        <f t="shared" si="5"/>
-        <v>0.49405629122023703</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="20">
-        <f t="shared" si="6"/>
-        <v>0.38709046203304931</v>
-      </c>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.59495594995325163</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="20">
-        <f t="shared" si="4"/>
-        <v>0.87599429755663638</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="20">
-        <f t="shared" si="5"/>
-        <v>0.48234311586561235</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="20">
-        <f>J26/$K26</f>
-        <v>0.90474506589769532</v>
-      </c>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="21">
-        <f t="shared" si="3"/>
-        <v>0.33734225806670309</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21">
-        <f t="shared" si="4"/>
-        <v>1.2436797647239342</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="21">
-        <f t="shared" si="5"/>
-        <v>0.83163391900391748</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="21">
-        <f t="shared" si="6"/>
-        <v>1.2478596630382424</v>
       </c>
       <c r="K41" s="23"/>
     </row>
@@ -11864,12 +9162,2902 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19">
+        <v>4217046.21</v>
+      </c>
+      <c r="C3" s="15">
+        <v>714156.42</v>
+      </c>
+      <c r="D3" s="7">
+        <v>210192.6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4862161</v>
+      </c>
+      <c r="F3" s="5">
+        <v>421552.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1949604.11</v>
+      </c>
+      <c r="H3" s="5">
+        <v>90780.86</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2267374.77</v>
+      </c>
+      <c r="J3" s="7">
+        <v>622625.88</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1599820.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
+        <v>4754341.68</v>
+      </c>
+      <c r="C4" s="6">
+        <v>734768</v>
+      </c>
+      <c r="D4" s="7">
+        <v>194120.85</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4009038.79</v>
+      </c>
+      <c r="F4" s="5">
+        <v>475748.56</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1700931.41</v>
+      </c>
+      <c r="H4" s="5">
+        <v>128927.27</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2536239.14</v>
+      </c>
+      <c r="J4" s="7">
+        <v>588669</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1592076.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20">
+        <v>6983216.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>582733.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>378812</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2404310.9300000002</v>
+      </c>
+      <c r="F5" s="5">
+        <v>622702.71</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1548772.1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>654336.37</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2081750.27</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1100622.6299999999</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1475082.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>281093</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2860570.43</v>
+      </c>
+      <c r="F6" s="5">
+        <v>391631.8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1343389.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>281768.84000000003</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1845781.78</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1367934.96</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1452970.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20">
+        <v>5777668.6200000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>647454</v>
+      </c>
+      <c r="D7" s="7">
+        <v>438023.26</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2874482.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>622711</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1408938</v>
+      </c>
+      <c r="H7" s="5">
+        <v>333860.59999999998</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1890861.45</v>
+      </c>
+      <c r="J7" s="7">
+        <v>982141.69</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1395001.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20">
+        <v>7677360.8600000003</v>
+      </c>
+      <c r="C8" s="6">
+        <v>626369</v>
+      </c>
+      <c r="D8" s="7">
+        <v>417608.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3095113.75</v>
+      </c>
+      <c r="F8" s="5">
+        <v>452001.26</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1481005.43</v>
+      </c>
+      <c r="H8" s="5">
+        <v>276823.64</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2036508.13</v>
+      </c>
+      <c r="J8" s="7">
+        <v>815585</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1237096.8899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>5878595.2000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>512648.44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>618048.75</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2690879.15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>632681.38</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1380243.19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>463686.96</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1831896</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1175324.72</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1321107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
+        <v>105166.78</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2775637.5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>356837.1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1467368.98</v>
+      </c>
+      <c r="H10" s="5">
+        <v>78624.820000000007</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1802235.87</v>
+      </c>
+      <c r="J10" s="7">
+        <v>403589.3</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1316630.9099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1510360.29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>592783.67000000004</v>
+      </c>
+      <c r="D11" s="7">
+        <v>110149.1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2988664</v>
+      </c>
+      <c r="F11" s="5">
+        <v>383492</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1616269.35</v>
+      </c>
+      <c r="H11" s="5">
+        <v>56391.37</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2130757.31</v>
+      </c>
+      <c r="J11" s="7">
+        <v>452409.19</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1403015.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2480602.96</v>
+      </c>
+      <c r="C12" s="6">
+        <v>434085.5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125202.09</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2768338</v>
+      </c>
+      <c r="F12" s="5">
+        <v>404186.5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1452900.94</v>
+      </c>
+      <c r="H12" s="5">
+        <v>50328.86</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1968774.89</v>
+      </c>
+      <c r="J12" s="7">
+        <v>471957.29</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1428212.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21">
+        <v>6635884</v>
+      </c>
+      <c r="C13" s="9">
+        <v>401079.08</v>
+      </c>
+      <c r="D13" s="10">
+        <v>113128.04</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3366249.69</v>
+      </c>
+      <c r="F13" s="8">
+        <v>398358</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1710223.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>81242</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2235262.5299999998</v>
+      </c>
+      <c r="J13" s="10">
+        <v>715926.57</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1649848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="20">
+        <f>B3/AVERAGE(B$3:B$13)</f>
+        <v>0.82660030063955259</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
+        <v>1.2251835100091093</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D3/AVERAGE(D$3:D$13)</f>
+        <v>0.7728844537476568</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5415213507901591</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.89832774873606658</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2570978652710667</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.39995226796056266</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1022510770631895</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78751903276343949</v>
+      </c>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1088259990762013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
+        <v>0.93191776099393397</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2605440657977607</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.71378815007417395</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2710436554714961</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0138187502709637</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0967545839260184</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56801350018565377</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2329555575652884</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.74456918093064361</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1034587276110426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3688085382235078</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99971862596977468</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3929030122518935</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.76227353074757165</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.326977601871338</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99864279661443012</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8828027757236696</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0120124417209093</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3921060734178812</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0223705201442044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0335873373148725</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.9069280908805748</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.83456618774078473</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86621281931825922</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2413859771610107</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.89729981207677056</v>
+      </c>
+      <c r="J20" s="20">
+        <f>J6/AVERAGE(J$3:J$13)</f>
+        <v>1.7302120762832638</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0070453175823459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1325042175166748</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1107510092669024</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6106245797134049</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91133896282562699</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.326995267836401</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90847826131187526</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4708860893438795</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91921463421759964</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2422472283764527</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.96686744125617785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20">
+        <f>B8/AVERAGE(B$3:B$13)</f>
+        <v>1.5048705845208972</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0745782695349793</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5355588988521875</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98128875797185544</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.96321332540470739</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95494708641533277</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2195989621942152</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99001863716620686</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0315804899346135</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85742443918446565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1522872450710544</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87948297814069121</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2725836710387144</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85312840568649917</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3482421176247148</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88997594886272946</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>2.042860700765984</v>
+      </c>
+      <c r="I23" s="29">
+        <f>I9/AVERAGE(I$3:I$13)</f>
+        <v>0.89054944325227203</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4865918947624861</v>
+      </c>
+      <c r="K23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91565134286100425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.38670138393406805</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88000057347007221</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76041878670597529</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94615435147137761</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.3463965320111641</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87613060492395545</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.51047389030740842</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91254899171210646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.29605183524608375</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0169603705119414</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.40502152304265721</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94753945135463835</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.81722029842594246</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0421647857461966</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24844285816308895</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0358364973372991</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.57222299805798493</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.97242191741233197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.48623302909060701</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.74470295531903108</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46037181583802167</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.8776863072209512</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.86132021567526107</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.93682541022357912</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22173332243018676</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95709111334843955</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.59694811999535602</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98988554370343373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3007264886976888</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" si="1"/>
+        <v>0.68807821544980918</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.41597517419235053</v>
+      </c>
+      <c r="E27" s="30">
+        <f>E13/AVERAGE(E$3:E$13)</f>
+        <v>1.0672509135805568</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.84889969970784684</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1027460908391356</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.35792701406058536</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0866401813280693</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.90552901517046935</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1434997594566845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19">
+        <f>B17/$C17</f>
+        <v>0.67467468659728103</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19">
+        <f>D17/$E17</f>
+        <v>0.50137771582047086</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19">
+        <f>F17/$G17</f>
+        <v>0.71460446601137229</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="19">
+        <f>H17/$I17</f>
+        <v>0.36285042154477687</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="19">
+        <f>J17/$K17</f>
+        <v>0.71022778453927582</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="1">
+        <f>AVERAGE(B31,D31,F31,H31,J31)</f>
+        <v>0.59274701490263537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20">
+        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
+        <v>0.73929804302727886</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="20">
+        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
+        <v>0.56157642343873138</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="20">
+        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
+        <v>0.92438068199526291</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="20">
+        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
+        <v>0.46069259893463427</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="20">
+        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
+        <v>0.67475942896624252</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="1">
+        <f t="shared" ref="L32:L41" si="7">AVERAGE(B32,D32,F32,H32,J32)</f>
+        <v>0.67214143527242998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20">
+        <f t="shared" si="2"/>
+        <v>1.3691937937994287</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="20">
+        <f t="shared" si="3"/>
+        <v>1.8273007733665567</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>1.3287810279811951</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="20">
+        <f t="shared" si="5"/>
+        <v>2.8485843225618002</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="20">
+        <f t="shared" si="6"/>
+        <v>1.3616453584963757</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7471010552410715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1396574300739972</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>0.96346552386239037</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="20">
+        <f>H20/$I20</f>
+        <v>1.3834684466141414</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="20">
+        <f t="shared" si="6"/>
+        <v>1.7181074635618716</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="1">
+        <f>AVERAGE(D34,F34,H34,J34)</f>
+        <v>1.3011747160281002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="20">
+        <f t="shared" si="2"/>
+        <v>1.0195842345118638</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7673167124552944</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="20">
+        <f>F21/$G21</f>
+        <v>1.4606791646507558</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="20">
+        <f t="shared" si="5"/>
+        <v>1.6001552135816914</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2848164860764106</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4265103622552033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="20">
+        <f t="shared" si="2"/>
+        <v>1.4004290121855207</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5648389797371236</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0086562272475266</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>1.2318949526901337</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2031153333065656</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="1">
+        <f t="shared" si="7"/>
+        <v>1.281786901033374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="20">
+        <f t="shared" si="2"/>
+        <v>1.3101870914057903</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="20">
+        <f t="shared" si="3"/>
+        <v>2.6638237056589409</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5149197226594588</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>2.2939329379685987</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="20">
+        <f t="shared" si="6"/>
+        <v>1.6235348818662199</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="1">
+        <f t="shared" si="7"/>
+        <v>1.881279667911802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="20">
+        <f t="shared" si="3"/>
+        <v>0.43943310446856126</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="20">
+        <f t="shared" si="4"/>
+        <v>0.80369422338272567</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="20">
+        <f t="shared" si="5"/>
+        <v>0.39537088427727041</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="20">
+        <f t="shared" si="6"/>
+        <v>0.55939340785382641</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="1">
+        <f>AVERAGE(D38,F38,H38,J38)</f>
+        <v>0.54947290499559587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="20">
+        <f t="shared" si="2"/>
+        <v>0.2911144267077489</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="20">
+        <f t="shared" si="3"/>
+        <v>0.42744555117322353</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="20">
+        <f>F25/$G25</f>
+        <v>0.78415650730398412</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="20">
+        <f t="shared" si="5"/>
+        <v>0.23984756165836141</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20">
+        <f t="shared" si="6"/>
+        <v>0.58845135821362571</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46620308101138869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20">
+        <f t="shared" si="2"/>
+        <v>0.65292211561360669</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.52452888013681453</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="20">
+        <f t="shared" si="4"/>
+        <v>0.91940313133660811</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="20">
+        <f t="shared" si="5"/>
+        <v>0.23167420461615162</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="20">
+        <f>J26/$K26</f>
+        <v>0.60304761878025726</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="1">
+        <f t="shared" si="7"/>
+        <v>0.58631519009668764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21">
+        <f t="shared" si="2"/>
+        <v>1.8903759187425813</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="21">
+        <f t="shared" si="3"/>
+        <v>0.38976324020822911</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="21">
+        <f t="shared" si="4"/>
+        <v>0.76980522239881699</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="21">
+        <f t="shared" si="5"/>
+        <v>0.32938871598060576</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="21">
+        <f t="shared" si="6"/>
+        <v>0.791892615351941</v>
+      </c>
+      <c r="K41" s="23"/>
+      <c r="L41" s="1">
+        <f t="shared" si="7"/>
+        <v>0.83424514253643489</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="15">
+        <v>714156.42</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4916886</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4862161</v>
+      </c>
+      <c r="F3" s="27">
+        <v>4142803.59</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1949604.11</v>
+      </c>
+      <c r="H3" s="27">
+        <v>14111782.65</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2267374.77</v>
+      </c>
+      <c r="J3" s="25">
+        <v>3727127.2</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1599820.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="6">
+        <v>734768</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4745497.79</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4009038.79</v>
+      </c>
+      <c r="F4" s="27">
+        <v>4212600.8899999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1700931.41</v>
+      </c>
+      <c r="H4" s="27">
+        <v>17219795.82</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2536239.14</v>
+      </c>
+      <c r="J4" s="25">
+        <v>5904737</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1592076.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="6">
+        <v>582733.5</v>
+      </c>
+      <c r="D5" s="25">
+        <v>5299589.74</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2404310.9300000002</v>
+      </c>
+      <c r="F5" s="27">
+        <v>3873284.97</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1548772.1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>18008572.829999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2081750.27</v>
+      </c>
+      <c r="J5" s="25">
+        <v>5757799.6299999999</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1475082.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="25">
+        <v>4577737</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2860570.43</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1275158.55</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1343389.5</v>
+      </c>
+      <c r="H6" s="27">
+        <v>11182866.84</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1845781.78</v>
+      </c>
+      <c r="J6" s="25">
+        <v>5244651.59</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1452970.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6">
+        <v>647454</v>
+      </c>
+      <c r="D7" s="25">
+        <v>4353043.3499999996</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2874482.9</v>
+      </c>
+      <c r="F7" s="27">
+        <v>3900238</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1408938</v>
+      </c>
+      <c r="H7" s="27">
+        <v>12484918.83</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1890861.45</v>
+      </c>
+      <c r="J7" s="25">
+        <v>5018180.5</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1395001.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="6">
+        <v>626369</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5197544.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3095113.75</v>
+      </c>
+      <c r="F8" s="27">
+        <v>2419767.4500000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1481005.43</v>
+      </c>
+      <c r="H8" s="27">
+        <v>19080240.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2036508.13</v>
+      </c>
+      <c r="J8" s="25">
+        <v>5013194.43</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1237096.8899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6">
+        <v>512648.44</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3974559.06</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2690879.15</v>
+      </c>
+      <c r="F9" s="27">
+        <v>5908671.8899999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1380243.19</v>
+      </c>
+      <c r="H9" s="27">
+        <v>15143825.33</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1831896</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4651801</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1321107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="25">
+        <v>1826352.11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2775637.5</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2708206.83</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1467368.98</v>
+      </c>
+      <c r="H10" s="27">
+        <v>6436700.4100000001</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1802235.87</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2243313</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1316630.9099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="6">
+        <v>592783.67000000004</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1927485.59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2988664</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1311270.26</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1616269.35</v>
+      </c>
+      <c r="H11" s="27">
+        <v>6376397.4699999997</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2130757.31</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1703210.63</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1403015.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="6">
+        <v>434085.5</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1900233.71</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2768338</v>
+      </c>
+      <c r="F12" s="27">
+        <v>2772072.54</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1452900.94</v>
+      </c>
+      <c r="H12" s="27">
+        <v>5751976.54</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1968774.89</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4052400.45</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1428212.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="9">
+        <v>401079.08</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1310147.42</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3366249.69</v>
+      </c>
+      <c r="F13" s="28">
+        <v>4632642.05</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1710223.5</v>
+      </c>
+      <c r="H13" s="28">
+        <v>11259670.77</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2235262.5299999998</v>
+      </c>
+      <c r="J13" s="26">
+        <v>6456586.5</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1649848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="20" t="e">
+        <f>B3/AVERAGE(B$3:B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
+        <v>1.2251835100091093</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D3/AVERAGE(D$3:D$13)</f>
+        <v>1.3511614815986857</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5415213507901591</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.226449566722243</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2570978652710667</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1325936987891025</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1022510770631895</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.82370758463914895</v>
+      </c>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1088259990762013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="e">
+        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2605440657977607</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3040639593555123</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2710436554714961</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2471125951482134</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0967545839260184</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3820388765814025</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2329555575652884</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3049666381655594</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1034587276110426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99971862596977468</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4563285634370196</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.76227353074757165</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1466603641830573</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99864279661443012</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.445345114597739</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0120124417209093</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2724929876456821</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0223705201442044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2579632530201275</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.9069280908805748</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37750224387288994</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86621281931825922</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.89752264696208328</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.89729981207677056</v>
+      </c>
+      <c r="J20" s="20">
+        <f>J6/AVERAGE(J$3:J$13)</f>
+        <v>1.1590855534720608</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0070453175823459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1107510092669024</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.196217382760004</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91133896282562699</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1546396302156405</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90847826131187526</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0020236810231353</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91921463421759964</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1090346846596157</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.96686744125617785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="e">
+        <f>B8/AVERAGE(B$3:B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0745782695349793</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4282865063975654</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98128875797185544</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.71635612844032692</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95494708641533277</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5313557966172782</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99001863716620686</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1079327465029192</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85742443918446565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87948297814069121</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0922098068190069</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85312840568649917</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7492231823122459</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88997594886272946</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2154241295886741</v>
+      </c>
+      <c r="I23" s="29">
+        <f>I9/AVERAGE(I$3:I$13)</f>
+        <v>0.89054944325227203</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0280635890108547</v>
+      </c>
+      <c r="K23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91565134286100425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.50188200883007772</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88000057347007221</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.80174669667304199</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94615435147137761</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.51660137533079376</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87613060492395545</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4957796806128868</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91254899171210646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0169603705119414</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52967351399737894</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94753945135463835</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.3881928764652739</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0421647857461966</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.5117615381850269</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0358364973372991</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37641524930220333</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.97242191741233197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.74470295531903108</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52218469067360251</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.8776863072209512</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.82065371716201196</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.93682541022357912</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46164630977977428</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95709111334843955</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.89559406146913911</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98988554370343373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" si="1"/>
+        <v>0.68807821544980918</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.36002883311101685</v>
+      </c>
+      <c r="E27" s="30">
+        <f>E13/AVERAGE(E$3:E$13)</f>
+        <v>1.0672509135805568</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3714629988050542</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1027460908391356</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.90368683254498972</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0866401813280693</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="1"/>
+        <v>1.4269272245199296</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1434997594566845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19" t="e">
+        <f>B17/$C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19">
+        <f>D17/$E17</f>
+        <v>0.87651168821379088</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19">
+        <f>F17/$G17</f>
+        <v>0.97561979906614904</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="19">
+        <f>H17/$I17</f>
+        <v>1.0275278676132096</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="19">
+        <f>J17/$K17</f>
+        <v>0.74286460213361372</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="O31" s="1">
+        <f>AVERAGE(D31,F31,H31,J31)</f>
+        <v>0.90563098925669083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="e">
+        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="20">
+        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
+        <v>1.0259788904510658</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="20">
+        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
+        <v>1.1370935790247285</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="20">
+        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
+        <v>1.120915403723479</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="20">
+        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
+        <v>1.1826148142312272</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="O32" s="1">
+        <f t="shared" ref="O32:O41" si="7">AVERAGE(D32,F32,H32,J32)</f>
+        <v>1.1166506718576252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9105065369497731</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1482187305315095</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="20">
+        <f t="shared" si="5"/>
+        <v>1.4281890765492518</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2446495302566023</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="O33" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4328909685717841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3870595316975107</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>0.43580773160341574</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="20">
+        <f>H20/$I20</f>
+        <v>1.0002483393870294</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1509765580904778</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="O34" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99352304019460846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3125932628306651</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="20">
+        <f>F21/$G21</f>
+        <v>1.2709601092141702</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="20">
+        <f t="shared" si="5"/>
+        <v>1.0900867367891935</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1470390224524789</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="O35" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2051697828216268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="20">
+        <f t="shared" si="3"/>
+        <v>1.4555211142432454</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>0.75015269288833031</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>1.5467949179225302</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2921637124744463</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="O36" s="1">
+        <f t="shared" si="7"/>
+        <v>1.261158109382138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2802408166682981</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9654724204036298</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3648025258990282</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1227675217497219</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="O37" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4333208211801696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="20">
+        <f t="shared" si="3"/>
+        <v>0.57032009291883279</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="20">
+        <f t="shared" si="4"/>
+        <v>0.847374104897615</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="20">
+        <f t="shared" si="5"/>
+        <v>0.58963968662598276</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54329102888242164</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="O38" s="1">
+        <f t="shared" si="7"/>
+        <v>0.63765622833121305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="20">
+        <f t="shared" si="3"/>
+        <v>0.55899890314871592</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="20">
+        <f>F25/$G25</f>
+        <v>0.37248704022111562</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="20">
+        <f t="shared" si="5"/>
+        <v>0.49405629122023703</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20">
+        <f t="shared" si="6"/>
+        <v>0.38709046203304931</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="O39" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45315817415577947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.59495594995325163</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="20">
+        <f t="shared" si="4"/>
+        <v>0.87599429755663638</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="20">
+        <f t="shared" si="5"/>
+        <v>0.48234311586561235</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="20">
+        <f>J26/$K26</f>
+        <v>0.90474506589769532</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="O40" s="1">
+        <f t="shared" si="7"/>
+        <v>0.71450960731829893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="21">
+        <f t="shared" si="3"/>
+        <v>0.33734225806670309</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="21">
+        <f t="shared" si="4"/>
+        <v>1.2436797647239342</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="21">
+        <f t="shared" si="5"/>
+        <v>0.83163391900391748</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="21">
+        <f t="shared" si="6"/>
+        <v>1.2478596630382424</v>
+      </c>
+      <c r="K41" s="23"/>
+      <c r="O41" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91512890120819934</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11892,7 +12080,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -11911,13 +12099,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
@@ -12870,7 +13058,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -12889,13 +13077,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="12" t="s">
         <v>26</v>
       </c>
@@ -13259,6 +13447,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -13271,12 +13465,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CrossTalkModel/data/HardCopy/AZD_calculations - v2.xlsx
+++ b/CrossTalkModel/data/HardCopy/AZD_calculations - v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MesiSTRAT\CrossTalkModel\data\HardCopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06341AE9-9F00-4E17-AA99-CF0D966A6F45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AB0715-6957-4F65-813C-3F8A4F135EE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="870" windowWidth="27315" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="870" windowWidth="27315" windowHeight="13620" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMAD2-pS465-467" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="27">
   <si>
     <t>DMSO</t>
   </si>
@@ -361,14 +361,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -714,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30:M41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L15" sqref="A15:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1.1088259990762013</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1.1034587276110426</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>1.0223705201442044</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1.0070453175823459</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0.96686744125617785</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.85742443918446565</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0.91565134286100425</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.91254899171210646</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0.97242191741233197</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0.98988554370343373</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>5</v>
       </c>
@@ -1705,9 +1705,9 @@
         <v>1.1434997594566845</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1726,13 +1726,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
       <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
@@ -1763,11 +1763,8 @@
       <c r="K30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -1796,12 +1793,8 @@
         <v>0.23626309612789551</v>
       </c>
       <c r="K31" s="31"/>
-      <c r="M31" s="1">
-        <f>AVERAGE(B31,D31,F31,H31,J31)</f>
-        <v>0.21509228406177372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
@@ -1830,12 +1823,8 @@
         <v>0.32197638416668511</v>
       </c>
       <c r="K32" s="22"/>
-      <c r="M32" s="1">
-        <f t="shared" ref="M32:M41" si="7">AVERAGE(B32,D32,F32,H32,J32)</f>
-        <v>0.34018690743914387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
@@ -1864,12 +1853,8 @@
         <v>1.227066179424728</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="M33" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2285553326678857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
@@ -1898,12 +1883,8 @@
         <v>1.4184334866178234</v>
       </c>
       <c r="K34" s="22"/>
-      <c r="M34" s="1">
-        <f>AVERAGE(D34,F34,H34,J34)</f>
-        <v>1.3825441296092513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
@@ -1932,12 +1913,8 @@
         <v>1.4665635364430401</v>
       </c>
       <c r="K35" s="22"/>
-      <c r="M35" s="1">
-        <f t="shared" si="7"/>
-        <v>1.57468489757061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>3</v>
       </c>
@@ -1966,12 +1943,8 @@
         <v>1.5395492192650257</v>
       </c>
       <c r="K36" s="22"/>
-      <c r="M36" s="1">
-        <f t="shared" si="7"/>
-        <v>1.3855253753296723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
@@ -2000,12 +1973,8 @@
         <v>1.2168027833744657</v>
       </c>
       <c r="K37" s="22"/>
-      <c r="M37" s="1">
-        <f t="shared" si="7"/>
-        <v>1.1133740116569633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>9</v>
       </c>
@@ -2034,12 +2003,8 @@
         <v>1.4477662258462558</v>
       </c>
       <c r="K38" s="22"/>
-      <c r="M38" s="1">
-        <f>AVERAGE(D38,F38,H38,J38)</f>
-        <v>1.4196249869006783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
@@ -2068,12 +2033,8 @@
         <v>1.2553071267022067</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="M39" s="1">
-        <f t="shared" si="7"/>
-        <v>1.3525412363633618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>4</v>
       </c>
@@ -2102,12 +2063,8 @@
         <v>0.86630512923137371</v>
       </c>
       <c r="K40" s="22"/>
-      <c r="M40" s="1">
-        <f t="shared" si="7"/>
-        <v>1.1336183883387998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>5</v>
       </c>
@@ -2136,13 +2093,15 @@
         <v>0.39197134355224833</v>
       </c>
       <c r="K41" s="23"/>
-      <c r="M41" s="1">
-        <f t="shared" si="7"/>
-        <v>0.51682986348440196</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -2155,12 +2114,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2168,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:L41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2136,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -2202,13 +2155,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2676,7 +2629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +2674,7 @@
         <v>1.1088259990762013</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
@@ -2766,7 +2719,7 @@
         <v>1.1034587276110426</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
@@ -2811,7 +2764,7 @@
         <v>1.0223705201442044</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>6</v>
       </c>
@@ -2850,7 +2803,7 @@
         <v>1.0070453175823459</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2848,7 @@
         <v>0.96686744125617785</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2893,7 @@
         <v>0.85742443918446565</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
@@ -2985,7 +2938,7 @@
         <v>0.91565134286100425</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
@@ -3024,7 +2977,7 @@
         <v>0.91254899171210646</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3022,7 @@
         <v>0.97242191741233197</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
@@ -3114,7 +3067,7 @@
         <v>0.98988554370343373</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>5</v>
       </c>
@@ -3159,9 +3112,9 @@
         <v>1.1434997594566845</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -3180,13 +3133,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
@@ -3217,11 +3170,8 @@
       <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -3250,12 +3200,8 @@
         <v>2.0279084250485697</v>
       </c>
       <c r="K31" s="31"/>
-      <c r="L31" s="1">
-        <f>AVERAGE(B31,D31,F31,H31,J31)</f>
-        <v>1.6505159414354686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>1</v>
       </c>
@@ -3284,12 +3230,8 @@
         <v>3.1825414515758403</v>
       </c>
       <c r="K32" s="22"/>
-      <c r="L32" s="1">
-        <f t="shared" ref="L32:L41" si="7">AVERAGE(B32,D32,F32,H32,J32)</f>
-        <v>2.1004554841206273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
@@ -3318,12 +3260,8 @@
         <v>4.0116049835734078</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="L33" s="1">
-        <f t="shared" si="7"/>
-        <v>3.912246235887757</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
@@ -3352,12 +3290,8 @@
         <v>0.22617742884788106</v>
       </c>
       <c r="K34" s="22"/>
-      <c r="L34" s="1">
-        <f>AVERAGE(D34,F34,H34,J34)</f>
-        <v>1.0665014160064596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
@@ -3386,12 +3320,8 @@
         <v>0.21193912038028462</v>
       </c>
       <c r="K35" s="22"/>
-      <c r="L35" s="1">
-        <f t="shared" si="7"/>
-        <v>0.5163018348808297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>3</v>
       </c>
@@ -3420,12 +3350,8 @@
         <v>0.13269041377825963</v>
       </c>
       <c r="K36" s="22"/>
-      <c r="L36" s="1">
-        <f t="shared" si="7"/>
-        <v>0.47453487596586419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
@@ -3454,12 +3380,8 @@
         <v>5.6611870176388468E-2</v>
       </c>
       <c r="K37" s="22"/>
-      <c r="L37" s="1">
-        <f t="shared" si="7"/>
-        <v>8.9639434276874153E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>9</v>
       </c>
@@ -3488,12 +3410,8 @@
         <v>0.22829456178319199</v>
       </c>
       <c r="K38" s="22"/>
-      <c r="L38" s="1">
-        <f>AVERAGE(D38,F38,H38,J38)</f>
-        <v>0.33957680258861284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
@@ -3522,12 +3440,8 @@
         <v>0.19618300180065712</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="L39" s="1">
-        <f t="shared" si="7"/>
-        <v>0.24277511736649759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>4</v>
       </c>
@@ -3556,12 +3470,8 @@
         <v>7.7880097590103572E-2</v>
       </c>
       <c r="K40" s="22"/>
-      <c r="L40" s="1">
-        <f t="shared" si="7"/>
-        <v>0.13407996941521153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>5</v>
       </c>
@@ -3590,13 +3500,15 @@
         <v>5.5759434746529106E-2</v>
       </c>
       <c r="K41" s="23"/>
-      <c r="L41" s="1">
-        <f t="shared" si="7"/>
-        <v>5.5339431491895116E-2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -3609,12 +3521,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3637,7 +3543,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -3656,13 +3562,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
@@ -4615,7 +4521,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -4634,13 +4540,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -5004,6 +4910,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -5016,12 +4928,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5044,7 +4950,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -5063,13 +4969,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
@@ -6004,7 +5910,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -6023,13 +5929,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -6393,6 +6299,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -6405,12 +6317,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6434,7 +6340,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -6453,13 +6359,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
@@ -7394,7 +7300,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -7413,13 +7319,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
@@ -7783,6 +7689,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -7795,12 +7707,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7823,7 +7729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -7842,13 +7748,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
@@ -8761,7 +8667,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -8780,13 +8686,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -9145,6 +9051,2802 @@
       <c r="J41" s="21" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19">
+        <v>4217046.21</v>
+      </c>
+      <c r="C3" s="15">
+        <v>714156.42</v>
+      </c>
+      <c r="D3" s="7">
+        <v>210192.6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4862161</v>
+      </c>
+      <c r="F3" s="5">
+        <v>421552.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1949604.11</v>
+      </c>
+      <c r="H3" s="5">
+        <v>90780.86</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2267374.77</v>
+      </c>
+      <c r="J3" s="7">
+        <v>622625.88</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1599820.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
+        <v>4754341.68</v>
+      </c>
+      <c r="C4" s="6">
+        <v>734768</v>
+      </c>
+      <c r="D4" s="7">
+        <v>194120.85</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4009038.79</v>
+      </c>
+      <c r="F4" s="5">
+        <v>475748.56</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1700931.41</v>
+      </c>
+      <c r="H4" s="5">
+        <v>128927.27</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2536239.14</v>
+      </c>
+      <c r="J4" s="7">
+        <v>588669</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1592076.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20">
+        <v>6983216.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>582733.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>378812</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2404310.9300000002</v>
+      </c>
+      <c r="F5" s="5">
+        <v>622702.71</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1548772.1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>654336.37</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2081750.27</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1100622.6299999999</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1475082.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>281093</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2860570.43</v>
+      </c>
+      <c r="F6" s="5">
+        <v>391631.8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1343389.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>281768.84000000003</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1845781.78</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1367934.96</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1452970.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20">
+        <v>5777668.6200000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>647454</v>
+      </c>
+      <c r="D7" s="7">
+        <v>438023.26</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2874482.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>622711</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1408938</v>
+      </c>
+      <c r="H7" s="5">
+        <v>333860.59999999998</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1890861.45</v>
+      </c>
+      <c r="J7" s="7">
+        <v>982141.69</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1395001.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20">
+        <v>7677360.8600000003</v>
+      </c>
+      <c r="C8" s="6">
+        <v>626369</v>
+      </c>
+      <c r="D8" s="7">
+        <v>417608.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3095113.75</v>
+      </c>
+      <c r="F8" s="5">
+        <v>452001.26</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1481005.43</v>
+      </c>
+      <c r="H8" s="5">
+        <v>276823.64</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2036508.13</v>
+      </c>
+      <c r="J8" s="7">
+        <v>815585</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1237096.8899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>5878595.2000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>512648.44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>618048.75</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2690879.15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>632681.38</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1380243.19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>463686.96</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1831896</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1175324.72</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1321107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
+        <v>105166.78</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2775637.5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>356837.1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1467368.98</v>
+      </c>
+      <c r="H10" s="5">
+        <v>78624.820000000007</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1802235.87</v>
+      </c>
+      <c r="J10" s="7">
+        <v>403589.3</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1316630.9099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1510360.29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>592783.67000000004</v>
+      </c>
+      <c r="D11" s="7">
+        <v>110149.1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2988664</v>
+      </c>
+      <c r="F11" s="5">
+        <v>383492</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1616269.35</v>
+      </c>
+      <c r="H11" s="5">
+        <v>56391.37</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2130757.31</v>
+      </c>
+      <c r="J11" s="7">
+        <v>452409.19</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1403015.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2480602.96</v>
+      </c>
+      <c r="C12" s="6">
+        <v>434085.5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125202.09</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2768338</v>
+      </c>
+      <c r="F12" s="5">
+        <v>404186.5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1452900.94</v>
+      </c>
+      <c r="H12" s="5">
+        <v>50328.86</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1968774.89</v>
+      </c>
+      <c r="J12" s="7">
+        <v>471957.29</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1428212.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21">
+        <v>6635884</v>
+      </c>
+      <c r="C13" s="9">
+        <v>401079.08</v>
+      </c>
+      <c r="D13" s="10">
+        <v>113128.04</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3366249.69</v>
+      </c>
+      <c r="F13" s="8">
+        <v>398358</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1710223.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>81242</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2235262.5299999998</v>
+      </c>
+      <c r="J13" s="10">
+        <v>715926.57</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1649848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="20">
+        <f>B3/AVERAGE(B$3:B$13)</f>
+        <v>0.82660030063955259</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
+        <v>1.2251835100091093</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D3/AVERAGE(D$3:D$13)</f>
+        <v>0.7728844537476568</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5415213507901591</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.89832774873606658</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2570978652710667</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.39995226796056266</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1022510770631895</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78751903276343949</v>
+      </c>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1088259990762013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
+        <v>0.93191776099393397</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2605440657977607</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.71378815007417395</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2710436554714961</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0138187502709637</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0967545839260184</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56801350018565377</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2329555575652884</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.74456918093064361</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1034587276110426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3688085382235078</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99971862596977468</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3929030122518935</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.76227353074757165</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.326977601871338</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99864279661443012</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>2.8828027757236696</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0120124417209093</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3921060734178812</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0223705201442044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0335873373148725</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.9069280908805748</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.83456618774078473</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86621281931825922</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2413859771610107</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.89729981207677056</v>
+      </c>
+      <c r="J20" s="20">
+        <f>J6/AVERAGE(J$3:J$13)</f>
+        <v>1.7302120762832638</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0070453175823459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1325042175166748</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1107510092669024</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6106245797134049</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91133896282562699</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.326995267836401</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90847826131187526</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4708860893438795</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91921463421759964</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2422472283764527</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.96686744125617785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20">
+        <f>B8/AVERAGE(B$3:B$13)</f>
+        <v>1.5048705845208972</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0745782695349793</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5355588988521875</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98128875797185544</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.96321332540470739</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95494708641533277</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2195989621942152</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99001863716620686</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0315804899346135</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85742443918446565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1522872450710544</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87948297814069121</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2725836710387144</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85312840568649917</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3482421176247148</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88997594886272946</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>2.042860700765984</v>
+      </c>
+      <c r="I23" s="29">
+        <f>I9/AVERAGE(I$3:I$13)</f>
+        <v>0.89054944325227203</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4865918947624861</v>
+      </c>
+      <c r="K23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91565134286100425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.38670138393406805</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88000057347007221</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76041878670597529</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94615435147137761</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.3463965320111641</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87613060492395545</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.51047389030740842</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91254899171210646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.29605183524608375</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0169603705119414</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.40502152304265721</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94753945135463835</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.81722029842594246</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0421647857461966</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24844285816308895</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0358364973372991</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.57222299805798493</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.97242191741233197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.48623302909060701</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.74470295531903108</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46037181583802167</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.8776863072209512</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.86132021567526107</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.93682541022357912</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22173332243018676</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95709111334843955</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.59694811999535602</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98988554370343373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3007264886976888</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" si="1"/>
+        <v>0.68807821544980918</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.41597517419235053</v>
+      </c>
+      <c r="E27" s="30">
+        <f>E13/AVERAGE(E$3:E$13)</f>
+        <v>1.0672509135805568</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.84889969970784684</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1027460908391356</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.35792701406058536</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0866401813280693</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.90552901517046935</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1434997594566845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19">
+        <f>B17/$C17</f>
+        <v>0.67467468659728103</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19">
+        <f>D17/$E17</f>
+        <v>0.50137771582047086</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19">
+        <f>F17/$G17</f>
+        <v>0.71460446601137229</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="19">
+        <f>H17/$I17</f>
+        <v>0.36285042154477687</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="19">
+        <f>J17/$K17</f>
+        <v>0.71022778453927582</v>
+      </c>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20">
+        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
+        <v>0.73929804302727886</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="20">
+        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
+        <v>0.56157642343873138</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="20">
+        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
+        <v>0.92438068199526291</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="20">
+        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
+        <v>0.46069259893463427</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="20">
+        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
+        <v>0.67475942896624252</v>
+      </c>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20">
+        <f t="shared" si="2"/>
+        <v>1.3691937937994287</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="20">
+        <f t="shared" si="3"/>
+        <v>1.8273007733665567</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>1.3287810279811951</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="20">
+        <f t="shared" si="5"/>
+        <v>2.8485843225618002</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="20">
+        <f t="shared" si="6"/>
+        <v>1.3616453584963757</v>
+      </c>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1396574300739972</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>0.96346552386239037</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="20">
+        <f>H20/$I20</f>
+        <v>1.3834684466141414</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="20">
+        <f t="shared" si="6"/>
+        <v>1.7181074635618716</v>
+      </c>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="20">
+        <f t="shared" si="2"/>
+        <v>1.0195842345118638</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7673167124552944</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="20">
+        <f>F21/$G21</f>
+        <v>1.4606791646507558</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="20">
+        <f t="shared" si="5"/>
+        <v>1.6001552135816914</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2848164860764106</v>
+      </c>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="20">
+        <f t="shared" si="2"/>
+        <v>1.4004290121855207</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5648389797371236</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0086562272475266</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>1.2318949526901337</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2031153333065656</v>
+      </c>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="20">
+        <f t="shared" si="2"/>
+        <v>1.3101870914057903</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="20">
+        <f t="shared" si="3"/>
+        <v>2.6638237056589409</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5149197226594588</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>2.2939329379685987</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="20">
+        <f t="shared" si="6"/>
+        <v>1.6235348818662199</v>
+      </c>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="20">
+        <f t="shared" si="3"/>
+        <v>0.43943310446856126</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="20">
+        <f t="shared" si="4"/>
+        <v>0.80369422338272567</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="20">
+        <f t="shared" si="5"/>
+        <v>0.39537088427727041</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="20">
+        <f t="shared" si="6"/>
+        <v>0.55939340785382641</v>
+      </c>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="20">
+        <f t="shared" si="2"/>
+        <v>0.2911144267077489</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="20">
+        <f t="shared" si="3"/>
+        <v>0.42744555117322353</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="20">
+        <f>F25/$G25</f>
+        <v>0.78415650730398412</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="20">
+        <f t="shared" si="5"/>
+        <v>0.23984756165836141</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20">
+        <f t="shared" si="6"/>
+        <v>0.58845135821362571</v>
+      </c>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20">
+        <f t="shared" si="2"/>
+        <v>0.65292211561360669</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.52452888013681453</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="20">
+        <f t="shared" si="4"/>
+        <v>0.91940313133660811</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="20">
+        <f t="shared" si="5"/>
+        <v>0.23167420461615162</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="20">
+        <f>J26/$K26</f>
+        <v>0.60304761878025726</v>
+      </c>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21">
+        <f t="shared" si="2"/>
+        <v>1.8903759187425813</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="21">
+        <f t="shared" si="3"/>
+        <v>0.38976324020822911</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="21">
+        <f t="shared" si="4"/>
+        <v>0.76980522239881699</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="21">
+        <f t="shared" si="5"/>
+        <v>0.32938871598060576</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="21">
+        <f t="shared" si="6"/>
+        <v>0.791892615351941</v>
+      </c>
+      <c r="K41" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="15">
+        <v>714156.42</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4916886</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4862161</v>
+      </c>
+      <c r="F3" s="27">
+        <v>4142803.59</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1949604.11</v>
+      </c>
+      <c r="H3" s="27">
+        <v>14111782.65</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2267374.77</v>
+      </c>
+      <c r="J3" s="25">
+        <v>3727127.2</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1599820.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="6">
+        <v>734768</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4745497.79</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4009038.79</v>
+      </c>
+      <c r="F4" s="27">
+        <v>4212600.8899999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1700931.41</v>
+      </c>
+      <c r="H4" s="27">
+        <v>17219795.82</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2536239.14</v>
+      </c>
+      <c r="J4" s="25">
+        <v>5904737</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1592076.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="6">
+        <v>582733.5</v>
+      </c>
+      <c r="D5" s="25">
+        <v>5299589.74</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2404310.9300000002</v>
+      </c>
+      <c r="F5" s="27">
+        <v>3873284.97</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1548772.1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>18008572.829999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2081750.27</v>
+      </c>
+      <c r="J5" s="25">
+        <v>5757799.6299999999</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1475082.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="25">
+        <v>4577737</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2860570.43</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1275158.55</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1343389.5</v>
+      </c>
+      <c r="H6" s="27">
+        <v>11182866.84</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1845781.78</v>
+      </c>
+      <c r="J6" s="25">
+        <v>5244651.59</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1452970.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="6">
+        <v>647454</v>
+      </c>
+      <c r="D7" s="25">
+        <v>4353043.3499999996</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2874482.9</v>
+      </c>
+      <c r="F7" s="27">
+        <v>3900238</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1408938</v>
+      </c>
+      <c r="H7" s="27">
+        <v>12484918.83</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1890861.45</v>
+      </c>
+      <c r="J7" s="25">
+        <v>5018180.5</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1395001.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="6">
+        <v>626369</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5197544.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3095113.75</v>
+      </c>
+      <c r="F8" s="27">
+        <v>2419767.4500000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1481005.43</v>
+      </c>
+      <c r="H8" s="27">
+        <v>19080240.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2036508.13</v>
+      </c>
+      <c r="J8" s="25">
+        <v>5013194.43</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1237096.8899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6">
+        <v>512648.44</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3974559.06</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2690879.15</v>
+      </c>
+      <c r="F9" s="27">
+        <v>5908671.8899999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1380243.19</v>
+      </c>
+      <c r="H9" s="27">
+        <v>15143825.33</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1831896</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4651801</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1321107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="25">
+        <v>1826352.11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2775637.5</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2708206.83</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1467368.98</v>
+      </c>
+      <c r="H10" s="27">
+        <v>6436700.4100000001</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1802235.87</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2243313</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1316630.9099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="6">
+        <v>592783.67000000004</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1927485.59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2988664</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1311270.26</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1616269.35</v>
+      </c>
+      <c r="H11" s="27">
+        <v>6376397.4699999997</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2130757.31</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1703210.63</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1403015.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="6">
+        <v>434085.5</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1900233.71</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2768338</v>
+      </c>
+      <c r="F12" s="27">
+        <v>2772072.54</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1452900.94</v>
+      </c>
+      <c r="H12" s="27">
+        <v>5751976.54</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1968774.89</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4052400.45</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1428212.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="9">
+        <v>401079.08</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1310147.42</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3366249.69</v>
+      </c>
+      <c r="F13" s="28">
+        <v>4632642.05</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1710223.5</v>
+      </c>
+      <c r="H13" s="28">
+        <v>11259670.77</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2235262.5299999998</v>
+      </c>
+      <c r="J13" s="26">
+        <v>6456586.5</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1649848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="20" t="e">
+        <f>B3/AVERAGE(B$3:B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
+        <v>1.2251835100091093</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D3/AVERAGE(D$3:D$13)</f>
+        <v>1.3511614815986857</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5415213507901591</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.226449566722243</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2570978652710667</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1325936987891025</v>
+      </c>
+      <c r="I17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1022510770631895</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.82370758463914895</v>
+      </c>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>1.1088259990762013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="e">
+        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2605440657977607</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3040639593555123</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2710436554714961</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2471125951482134</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0967545839260184</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3820388765814025</v>
+      </c>
+      <c r="I18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.2329555575652884</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3049666381655594</v>
+      </c>
+      <c r="K18" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1034587276110426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99971862596977468</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4563285634370196</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.76227353074757165</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1466603641830573</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99864279661443012</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.445345114597739</v>
+      </c>
+      <c r="I19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0120124417209093</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2724929876456821</v>
+      </c>
+      <c r="K19" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0223705201442044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2579632530201275</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.9069280908805748</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37750224387288994</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.86621281931825922</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.89752264696208328</v>
+      </c>
+      <c r="I20" s="29">
+        <f t="shared" si="1"/>
+        <v>0.89729981207677056</v>
+      </c>
+      <c r="J20" s="20">
+        <f>J6/AVERAGE(J$3:J$13)</f>
+        <v>1.1590855534720608</v>
+      </c>
+      <c r="K20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0070453175823459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="1"/>
+        <v>1.1107510092669024</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.196217382760004</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91133896282562699</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1546396302156405</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.90847826131187526</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0020236810231353</v>
+      </c>
+      <c r="I21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91921463421759964</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1090346846596157</v>
+      </c>
+      <c r="K21" s="29">
+        <f t="shared" si="1"/>
+        <v>0.96686744125617785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="e">
+        <f>B8/AVERAGE(B$3:B$13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0745782695349793</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4282865063975654</v>
+      </c>
+      <c r="E22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98128875797185544</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.71635612844032692</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95494708641533277</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5313557966172782</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.99001863716620686</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>1.1079327465029192</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85742443918446565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87948297814069121</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0922098068190069</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85312840568649917</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.7492231823122459</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88997594886272946</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2154241295886741</v>
+      </c>
+      <c r="I23" s="29">
+        <f>I9/AVERAGE(I$3:I$13)</f>
+        <v>0.89054944325227203</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.0280635890108547</v>
+      </c>
+      <c r="K23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91565134286100425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.50188200883007772</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.88000057347007221</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.80174669667304199</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94615435147137761</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.51660137533079376</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.87613060492395545</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4957796806128868</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="1"/>
+        <v>0.91254899171210646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0169603705119414</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52967351399737894</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.94753945135463835</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.3881928764652739</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0421647857461966</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.5117615381850269</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" si="1"/>
+        <v>1.0358364973372991</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37641524930220333</v>
+      </c>
+      <c r="K25" s="29">
+        <f t="shared" si="1"/>
+        <v>0.97242191741233197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.74470295531903108</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52218469067360251</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.8776863072209512</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.82065371716201196</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.93682541022357912</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46164630977977428</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.95709111334843955</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.89559406146913911</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.98988554370343373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="30">
+        <f t="shared" si="1"/>
+        <v>0.68807821544980918</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.36002883311101685</v>
+      </c>
+      <c r="E27" s="30">
+        <f>E13/AVERAGE(E$3:E$13)</f>
+        <v>1.0672509135805568</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3714629988050542</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1027460908391356</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="1"/>
+        <v>0.90368683254498972</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0866401813280693</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="1"/>
+        <v>1.4269272245199296</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1434997594566845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19" t="e">
+        <f>B17/$C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19">
+        <f>D17/$E17</f>
+        <v>0.87651168821379088</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19">
+        <f>F17/$G17</f>
+        <v>0.97561979906614904</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="19">
+        <f>H17/$I17</f>
+        <v>1.0275278676132096</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="19">
+        <f>J17/$K17</f>
+        <v>0.74286460213361372</v>
+      </c>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="e">
+        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="20">
+        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
+        <v>1.0259788904510658</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="20">
+        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
+        <v>1.1370935790247285</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="20">
+        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
+        <v>1.120915403723479</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="20">
+        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
+        <v>1.1826148142312272</v>
+      </c>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9105065369497731</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1482187305315095</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="20">
+        <f t="shared" si="5"/>
+        <v>1.4281890765492518</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2446495302566023</v>
+      </c>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3870595316975107</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>0.43580773160341574</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="20">
+        <f>H20/$I20</f>
+        <v>1.0002483393870294</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1509765580904778</v>
+      </c>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3125932628306651</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="20">
+        <f>F21/$G21</f>
+        <v>1.2709601092141702</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="20">
+        <f t="shared" si="5"/>
+        <v>1.0900867367891935</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1470390224524789</v>
+      </c>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="20">
+        <f t="shared" si="3"/>
+        <v>1.4555211142432454</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>0.75015269288833031</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>1.5467949179225302</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="20">
+        <f t="shared" si="6"/>
+        <v>1.2921637124744463</v>
+      </c>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2802408166682981</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9654724204036298</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3648025258990282</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1227675217497219</v>
+      </c>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="20">
+        <f t="shared" si="3"/>
+        <v>0.57032009291883279</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="20">
+        <f t="shared" si="4"/>
+        <v>0.847374104897615</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="20">
+        <f t="shared" si="5"/>
+        <v>0.58963968662598276</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="20">
+        <f t="shared" si="6"/>
+        <v>0.54329102888242164</v>
+      </c>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="20">
+        <f t="shared" si="3"/>
+        <v>0.55899890314871592</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="20">
+        <f>F25/$G25</f>
+        <v>0.37248704022111562</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="20">
+        <f t="shared" si="5"/>
+        <v>0.49405629122023703</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20">
+        <f t="shared" si="6"/>
+        <v>0.38709046203304931</v>
+      </c>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="20">
+        <f t="shared" si="3"/>
+        <v>0.59495594995325163</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="20">
+        <f t="shared" si="4"/>
+        <v>0.87599429755663638</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="20">
+        <f t="shared" si="5"/>
+        <v>0.48234311586561235</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="20">
+        <f>J26/$K26</f>
+        <v>0.90474506589769532</v>
+      </c>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="21">
+        <f t="shared" si="3"/>
+        <v>0.33734225806670309</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="21">
+        <f t="shared" si="4"/>
+        <v>1.2436797647239342</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="21">
+        <f t="shared" si="5"/>
+        <v>0.83163391900391748</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="21">
+        <f t="shared" si="6"/>
+        <v>1.2478596630382424</v>
       </c>
       <c r="K41" s="23"/>
     </row>
@@ -9162,2902 +11864,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
-        <v>4217046.21</v>
-      </c>
-      <c r="C3" s="15">
-        <v>714156.42</v>
-      </c>
-      <c r="D3" s="7">
-        <v>210192.6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4862161</v>
-      </c>
-      <c r="F3" s="5">
-        <v>421552.8</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1949604.11</v>
-      </c>
-      <c r="H3" s="5">
-        <v>90780.86</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2267374.77</v>
-      </c>
-      <c r="J3" s="7">
-        <v>622625.88</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1599820.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20">
-        <v>4754341.68</v>
-      </c>
-      <c r="C4" s="6">
-        <v>734768</v>
-      </c>
-      <c r="D4" s="7">
-        <v>194120.85</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4009038.79</v>
-      </c>
-      <c r="F4" s="5">
-        <v>475748.56</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1700931.41</v>
-      </c>
-      <c r="H4" s="5">
-        <v>128927.27</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2536239.14</v>
-      </c>
-      <c r="J4" s="7">
-        <v>588669</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1592076.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20">
-        <v>6983216.5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>582733.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>378812</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2404310.9300000002</v>
-      </c>
-      <c r="F5" s="5">
-        <v>622702.71</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1548772.1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>654336.37</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2081750.27</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1100622.6299999999</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1475082.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
-        <v>281093</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2860570.43</v>
-      </c>
-      <c r="F6" s="5">
-        <v>391631.8</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1343389.5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>281768.84000000003</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1845781.78</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1367934.96</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1452970.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20">
-        <v>5777668.6200000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>647454</v>
-      </c>
-      <c r="D7" s="7">
-        <v>438023.26</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2874482.9</v>
-      </c>
-      <c r="F7" s="5">
-        <v>622711</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1408938</v>
-      </c>
-      <c r="H7" s="5">
-        <v>333860.59999999998</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1890861.45</v>
-      </c>
-      <c r="J7" s="7">
-        <v>982141.69</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1395001.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20">
-        <v>7677360.8600000003</v>
-      </c>
-      <c r="C8" s="6">
-        <v>626369</v>
-      </c>
-      <c r="D8" s="7">
-        <v>417608.5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3095113.75</v>
-      </c>
-      <c r="F8" s="5">
-        <v>452001.26</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1481005.43</v>
-      </c>
-      <c r="H8" s="5">
-        <v>276823.64</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2036508.13</v>
-      </c>
-      <c r="J8" s="7">
-        <v>815585</v>
-      </c>
-      <c r="K8" s="22">
-        <v>1237096.8899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20">
-        <v>5878595.2000000002</v>
-      </c>
-      <c r="C9" s="6">
-        <v>512648.44</v>
-      </c>
-      <c r="D9" s="7">
-        <v>618048.75</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2690879.15</v>
-      </c>
-      <c r="F9" s="5">
-        <v>632681.38</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1380243.19</v>
-      </c>
-      <c r="H9" s="5">
-        <v>463686.96</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1831896</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1175324.72</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1321107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
-        <v>105166.78</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2775637.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>356837.1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1467368.98</v>
-      </c>
-      <c r="H10" s="5">
-        <v>78624.820000000007</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1802235.87</v>
-      </c>
-      <c r="J10" s="7">
-        <v>403589.3</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1316630.9099999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1510360.29</v>
-      </c>
-      <c r="C11" s="6">
-        <v>592783.67000000004</v>
-      </c>
-      <c r="D11" s="7">
-        <v>110149.1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2988664</v>
-      </c>
-      <c r="F11" s="5">
-        <v>383492</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1616269.35</v>
-      </c>
-      <c r="H11" s="5">
-        <v>56391.37</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2130757.31</v>
-      </c>
-      <c r="J11" s="7">
-        <v>452409.19</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1403015.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2480602.96</v>
-      </c>
-      <c r="C12" s="6">
-        <v>434085.5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>125202.09</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2768338</v>
-      </c>
-      <c r="F12" s="5">
-        <v>404186.5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1452900.94</v>
-      </c>
-      <c r="H12" s="5">
-        <v>50328.86</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1968774.89</v>
-      </c>
-      <c r="J12" s="7">
-        <v>471957.29</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1428212.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21">
-        <v>6635884</v>
-      </c>
-      <c r="C13" s="9">
-        <v>401079.08</v>
-      </c>
-      <c r="D13" s="10">
-        <v>113128.04</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3366249.69</v>
-      </c>
-      <c r="F13" s="8">
-        <v>398358</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1710223.5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>81242</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2235262.5299999998</v>
-      </c>
-      <c r="J13" s="10">
-        <v>715926.57</v>
-      </c>
-      <c r="K13" s="23">
-        <v>1649848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="20">
-        <f>B3/AVERAGE(B$3:B$13)</f>
-        <v>0.82660030063955259</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
-        <v>1.2251835100091093</v>
-      </c>
-      <c r="D17" s="20">
-        <f>D3/AVERAGE(D$3:D$13)</f>
-        <v>0.7728844537476568</v>
-      </c>
-      <c r="E17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.5415213507901591</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.89832774873606658</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.2570978652710667</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.39995226796056266</v>
-      </c>
-      <c r="I17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1022510770631895</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.78751903276343949</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1088259990762013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="20">
-        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
-        <v>0.93191776099393397</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2605440657977607</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.71378815007417395</v>
-      </c>
-      <c r="E18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2710436554714961</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0138187502709637</v>
-      </c>
-      <c r="G18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0967545839260184</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.56801350018565377</v>
-      </c>
-      <c r="I18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2329555575652884</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.74456918093064361</v>
-      </c>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1034587276110426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3688085382235078</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99971862596977468</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3929030122518935</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.76227353074757165</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.326977601871338</v>
-      </c>
-      <c r="G19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99864279661443012</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="1"/>
-        <v>2.8828027757236696</v>
-      </c>
-      <c r="I19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0120124417209093</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3921060734178812</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0223705201442044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0335873373148725</v>
-      </c>
-      <c r="E20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.9069280908805748</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.83456618774078473</v>
-      </c>
-      <c r="G20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.86621281931825922</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2413859771610107</v>
-      </c>
-      <c r="I20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.89729981207677056</v>
-      </c>
-      <c r="J20" s="20">
-        <f>J6/AVERAGE(J$3:J$13)</f>
-        <v>1.7302120762832638</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0070453175823459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1325042175166748</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1107510092669024</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.6106245797134049</v>
-      </c>
-      <c r="E21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91133896282562699</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.326995267836401</v>
-      </c>
-      <c r="G21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.90847826131187526</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4708860893438795</v>
-      </c>
-      <c r="I21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91921463421759964</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2422472283764527</v>
-      </c>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.96686744125617785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20">
-        <f>B8/AVERAGE(B$3:B$13)</f>
-        <v>1.5048705845208972</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0745782695349793</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.5355588988521875</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98128875797185544</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.96321332540470739</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95494708641533277</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2195989621942152</v>
-      </c>
-      <c r="I22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99001863716620686</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0315804899346135</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85742443918446565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1522872450710544</v>
-      </c>
-      <c r="C23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87948297814069121</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="1"/>
-        <v>2.2725836710387144</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85312840568649917</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3482421176247148</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88997594886272946</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" si="1"/>
-        <v>2.042860700765984</v>
-      </c>
-      <c r="I23" s="29">
-        <f>I9/AVERAGE(I$3:I$13)</f>
-        <v>0.89054944325227203</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4865918947624861</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91565134286100425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.38670138393406805</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88000057347007221</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.76041878670597529</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94615435147137761</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3463965320111641</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87613060492395545</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.51047389030740842</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91254899171210646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.29605183524608375</v>
-      </c>
-      <c r="C25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0169603705119414</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.40502152304265721</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94753945135463835</v>
-      </c>
-      <c r="F25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.81722029842594246</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0421647857461966</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.24844285816308895</v>
-      </c>
-      <c r="I25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0358364973372991</v>
-      </c>
-      <c r="J25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.57222299805798493</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.97242191741233197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.48623302909060701</v>
-      </c>
-      <c r="C26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.74470295531903108</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46037181583802167</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.8776863072209512</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.86132021567526107</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.93682541022357912</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.22173332243018676</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95709111334843955</v>
-      </c>
-      <c r="J26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.59694811999535602</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98988554370343373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21">
-        <f t="shared" si="1"/>
-        <v>1.3007264886976888</v>
-      </c>
-      <c r="C27" s="30">
-        <f t="shared" si="1"/>
-        <v>0.68807821544980918</v>
-      </c>
-      <c r="D27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.41597517419235053</v>
-      </c>
-      <c r="E27" s="30">
-        <f>E13/AVERAGE(E$3:E$13)</f>
-        <v>1.0672509135805568</v>
-      </c>
-      <c r="F27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.84889969970784684</v>
-      </c>
-      <c r="G27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1027460908391356</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.35792701406058536</v>
-      </c>
-      <c r="I27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.0866401813280693</v>
-      </c>
-      <c r="J27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.90552901517046935</v>
-      </c>
-      <c r="K27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1434997594566845</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="19">
-        <f>B17/$C17</f>
-        <v>0.67467468659728103</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="19">
-        <f>D17/$E17</f>
-        <v>0.50137771582047086</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19">
-        <f>F17/$G17</f>
-        <v>0.71460446601137229</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="19">
-        <f>H17/$I17</f>
-        <v>0.36285042154477687</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19">
-        <f>J17/$K17</f>
-        <v>0.71022778453927582</v>
-      </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="1">
-        <f>AVERAGE(B31,D31,F31,H31,J31)</f>
-        <v>0.59274701490263537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20">
-        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
-        <v>0.73929804302727886</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="20">
-        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
-        <v>0.56157642343873138</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20">
-        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
-        <v>0.92438068199526291</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="20">
-        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
-        <v>0.46069259893463427</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="20">
-        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
-        <v>0.67475942896624252</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="1">
-        <f t="shared" ref="L32:L41" si="7">AVERAGE(B32,D32,F32,H32,J32)</f>
-        <v>0.67214143527242998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="20">
-        <f t="shared" si="2"/>
-        <v>1.3691937937994287</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="20">
-        <f t="shared" si="3"/>
-        <v>1.8273007733665567</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="20">
-        <f t="shared" si="4"/>
-        <v>1.3287810279811951</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="20">
-        <f t="shared" si="5"/>
-        <v>2.8485843225618002</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="20">
-        <f t="shared" si="6"/>
-        <v>1.3616453584963757</v>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="1">
-        <f t="shared" si="7"/>
-        <v>1.7471010552410715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1396574300739972</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20">
-        <f t="shared" si="4"/>
-        <v>0.96346552386239037</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="20">
-        <f>H20/$I20</f>
-        <v>1.3834684466141414</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="20">
-        <f t="shared" si="6"/>
-        <v>1.7181074635618716</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="1">
-        <f>AVERAGE(D34,F34,H34,J34)</f>
-        <v>1.3011747160281002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="20">
-        <f t="shared" si="2"/>
-        <v>1.0195842345118638</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7673167124552944</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="20">
-        <f>F21/$G21</f>
-        <v>1.4606791646507558</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="20">
-        <f t="shared" si="5"/>
-        <v>1.6001552135816914</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2848164860764106</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="1">
-        <f t="shared" si="7"/>
-        <v>1.4265103622552033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="20">
-        <f t="shared" si="2"/>
-        <v>1.4004290121855207</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="20">
-        <f t="shared" si="3"/>
-        <v>1.5648389797371236</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20">
-        <f t="shared" si="4"/>
-        <v>1.0086562272475266</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="20">
-        <f t="shared" si="5"/>
-        <v>1.2318949526901337</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2031153333065656</v>
-      </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="1">
-        <f t="shared" si="7"/>
-        <v>1.281786901033374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="20">
-        <f t="shared" si="2"/>
-        <v>1.3101870914057903</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="20">
-        <f t="shared" si="3"/>
-        <v>2.6638237056589409</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="20">
-        <f t="shared" si="4"/>
-        <v>1.5149197226594588</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="20">
-        <f t="shared" si="5"/>
-        <v>2.2939329379685987</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="20">
-        <f t="shared" si="6"/>
-        <v>1.6235348818662199</v>
-      </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="1">
-        <f t="shared" si="7"/>
-        <v>1.881279667911802</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="20">
-        <f t="shared" si="3"/>
-        <v>0.43943310446856126</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="20">
-        <f t="shared" si="4"/>
-        <v>0.80369422338272567</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="20">
-        <f t="shared" si="5"/>
-        <v>0.39537088427727041</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="20">
-        <f t="shared" si="6"/>
-        <v>0.55939340785382641</v>
-      </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="1">
-        <f>AVERAGE(D38,F38,H38,J38)</f>
-        <v>0.54947290499559587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="20">
-        <f t="shared" si="2"/>
-        <v>0.2911144267077489</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="20">
-        <f t="shared" si="3"/>
-        <v>0.42744555117322353</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="20">
-        <f>F25/$G25</f>
-        <v>0.78415650730398412</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="20">
-        <f t="shared" si="5"/>
-        <v>0.23984756165836141</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="20">
-        <f t="shared" si="6"/>
-        <v>0.58845135821362571</v>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="1">
-        <f t="shared" si="7"/>
-        <v>0.46620308101138869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="20">
-        <f t="shared" si="2"/>
-        <v>0.65292211561360669</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.52452888013681453</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="20">
-        <f t="shared" si="4"/>
-        <v>0.91940313133660811</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="20">
-        <f t="shared" si="5"/>
-        <v>0.23167420461615162</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="20">
-        <f>J26/$K26</f>
-        <v>0.60304761878025726</v>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="1">
-        <f t="shared" si="7"/>
-        <v>0.58631519009668764</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21">
-        <f t="shared" si="2"/>
-        <v>1.8903759187425813</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="21">
-        <f t="shared" si="3"/>
-        <v>0.38976324020822911</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21">
-        <f t="shared" si="4"/>
-        <v>0.76980522239881699</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="21">
-        <f t="shared" si="5"/>
-        <v>0.32938871598060576</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="21">
-        <f t="shared" si="6"/>
-        <v>0.791892615351941</v>
-      </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="1">
-        <f t="shared" si="7"/>
-        <v>0.83424514253643489</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O41"/>
-  <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="19.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="15">
-        <v>714156.42</v>
-      </c>
-      <c r="D3" s="25">
-        <v>4916886</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4862161</v>
-      </c>
-      <c r="F3" s="27">
-        <v>4142803.59</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1949604.11</v>
-      </c>
-      <c r="H3" s="27">
-        <v>14111782.65</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2267374.77</v>
-      </c>
-      <c r="J3" s="25">
-        <v>3727127.2</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1599820.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="6">
-        <v>734768</v>
-      </c>
-      <c r="D4" s="25">
-        <v>4745497.79</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4009038.79</v>
-      </c>
-      <c r="F4" s="27">
-        <v>4212600.8899999997</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1700931.41</v>
-      </c>
-      <c r="H4" s="27">
-        <v>17219795.82</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2536239.14</v>
-      </c>
-      <c r="J4" s="25">
-        <v>5904737</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1592076.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="6">
-        <v>582733.5</v>
-      </c>
-      <c r="D5" s="25">
-        <v>5299589.74</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2404310.9300000002</v>
-      </c>
-      <c r="F5" s="27">
-        <v>3873284.97</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1548772.1</v>
-      </c>
-      <c r="H5" s="27">
-        <v>18008572.829999998</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2081750.27</v>
-      </c>
-      <c r="J5" s="25">
-        <v>5757799.6299999999</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1475082.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="25">
-        <v>4577737</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2860570.43</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1275158.55</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1343389.5</v>
-      </c>
-      <c r="H6" s="27">
-        <v>11182866.84</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1845781.78</v>
-      </c>
-      <c r="J6" s="25">
-        <v>5244651.59</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1452970.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="6">
-        <v>647454</v>
-      </c>
-      <c r="D7" s="25">
-        <v>4353043.3499999996</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2874482.9</v>
-      </c>
-      <c r="F7" s="27">
-        <v>3900238</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1408938</v>
-      </c>
-      <c r="H7" s="27">
-        <v>12484918.83</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1890861.45</v>
-      </c>
-      <c r="J7" s="25">
-        <v>5018180.5</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1395001.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="6">
-        <v>626369</v>
-      </c>
-      <c r="D8" s="25">
-        <v>5197544.5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3095113.75</v>
-      </c>
-      <c r="F8" s="27">
-        <v>2419767.4500000002</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1481005.43</v>
-      </c>
-      <c r="H8" s="27">
-        <v>19080240.5</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2036508.13</v>
-      </c>
-      <c r="J8" s="25">
-        <v>5013194.43</v>
-      </c>
-      <c r="K8" s="22">
-        <v>1237096.8899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="6">
-        <v>512648.44</v>
-      </c>
-      <c r="D9" s="25">
-        <v>3974559.06</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2690879.15</v>
-      </c>
-      <c r="F9" s="27">
-        <v>5908671.8899999997</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1380243.19</v>
-      </c>
-      <c r="H9" s="27">
-        <v>15143825.33</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1831896</v>
-      </c>
-      <c r="J9" s="25">
-        <v>4651801</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1321107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="25">
-        <v>1826352.11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2775637.5</v>
-      </c>
-      <c r="F10" s="27">
-        <v>2708206.83</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1467368.98</v>
-      </c>
-      <c r="H10" s="27">
-        <v>6436700.4100000001</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1802235.87</v>
-      </c>
-      <c r="J10" s="25">
-        <v>2243313</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1316630.9099999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="6">
-        <v>592783.67000000004</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1927485.59</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2988664</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1311270.26</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1616269.35</v>
-      </c>
-      <c r="H11" s="27">
-        <v>6376397.4699999997</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2130757.31</v>
-      </c>
-      <c r="J11" s="25">
-        <v>1703210.63</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1403015.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="6">
-        <v>434085.5</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1900233.71</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2768338</v>
-      </c>
-      <c r="F12" s="27">
-        <v>2772072.54</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1452900.94</v>
-      </c>
-      <c r="H12" s="27">
-        <v>5751976.54</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1968774.89</v>
-      </c>
-      <c r="J12" s="25">
-        <v>4052400.45</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1428212.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="9">
-        <v>401079.08</v>
-      </c>
-      <c r="D13" s="26">
-        <v>1310147.42</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3366249.69</v>
-      </c>
-      <c r="F13" s="28">
-        <v>4632642.05</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1710223.5</v>
-      </c>
-      <c r="H13" s="28">
-        <v>11259670.77</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2235262.5299999998</v>
-      </c>
-      <c r="J13" s="26">
-        <v>6456586.5</v>
-      </c>
-      <c r="K13" s="23">
-        <v>1649848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="20" t="e">
-        <f>B3/AVERAGE(B$3:B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" ref="C17:K17" si="0">C3/AVERAGE(C$3:C$13)</f>
-        <v>1.2251835100091093</v>
-      </c>
-      <c r="D17" s="20">
-        <f>D3/AVERAGE(D$3:D$13)</f>
-        <v>1.3511614815986857</v>
-      </c>
-      <c r="E17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.5415213507901591</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>1.226449566722243</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.2570978652710667</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="0"/>
-        <v>1.1325936987891025</v>
-      </c>
-      <c r="I17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1022510770631895</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.82370758463914895</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="0"/>
-        <v>1.1088259990762013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="20" t="e">
-        <f t="shared" ref="B18:K27" si="1">B4/AVERAGE(B$3:B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2605440657977607</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3040639593555123</v>
-      </c>
-      <c r="E18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2710436554714961</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2471125951482134</v>
-      </c>
-      <c r="G18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0967545839260184</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3820388765814025</v>
-      </c>
-      <c r="I18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.2329555575652884</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3049666381655594</v>
-      </c>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1034587276110426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99971862596977468</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4563285634370196</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.76227353074757165</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1466603641830573</v>
-      </c>
-      <c r="G19" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99864279661443012</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.445345114597739</v>
-      </c>
-      <c r="I19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0120124417209093</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2724929876456821</v>
-      </c>
-      <c r="K19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0223705201442044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2579632530201275</v>
-      </c>
-      <c r="E20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.9069280908805748</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.37750224387288994</v>
-      </c>
-      <c r="G20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.86621281931825922</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89752264696208328</v>
-      </c>
-      <c r="I20" s="29">
-        <f t="shared" si="1"/>
-        <v>0.89729981207677056</v>
-      </c>
-      <c r="J20" s="20">
-        <f>J6/AVERAGE(J$3:J$13)</f>
-        <v>1.1590855534720608</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0070453175823459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1107510092669024</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.196217382760004</v>
-      </c>
-      <c r="E21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91133896282562699</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1546396302156405</v>
-      </c>
-      <c r="G21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.90847826131187526</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0020236810231353</v>
-      </c>
-      <c r="I21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91921463421759964</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1090346846596157</v>
-      </c>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
-        <v>0.96686744125617785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20" t="e">
-        <f>B8/AVERAGE(B$3:B$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0745782695349793</v>
-      </c>
-      <c r="D22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4282865063975654</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98128875797185544</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.71635612844032692</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95494708641533277</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.5313557966172782</v>
-      </c>
-      <c r="I22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.99001863716620686</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" si="1"/>
-        <v>1.1079327465029192</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85742443918446565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87948297814069121</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0922098068190069</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.85312840568649917</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.7492231823122459</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88997594886272946</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.2154241295886741</v>
-      </c>
-      <c r="I23" s="29">
-        <f>I9/AVERAGE(I$3:I$13)</f>
-        <v>0.89054944325227203</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0280635890108547</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91565134286100425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.50188200883007772</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.88000057347007221</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.80174669667304199</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94615435147137761</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.51660137533079376</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.87613060492395545</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.4957796806128868</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>0.91254899171210646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0169603705119414</v>
-      </c>
-      <c r="D25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52967351399737894</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.94753945135463835</v>
-      </c>
-      <c r="F25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3881928764652739</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0421647857461966</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.5117615381850269</v>
-      </c>
-      <c r="I25" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0358364973372991</v>
-      </c>
-      <c r="J25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.37641524930220333</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
-        <v>0.97242191741233197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.74470295531903108</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52218469067360251</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.8776863072209512</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.82065371716201196</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.93682541022357912</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46164630977977428</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.95709111334843955</v>
-      </c>
-      <c r="J26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89559406146913911</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
-        <v>0.98988554370343373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27" s="30">
-        <f t="shared" si="1"/>
-        <v>0.68807821544980918</v>
-      </c>
-      <c r="D27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.36002883311101685</v>
-      </c>
-      <c r="E27" s="30">
-        <f>E13/AVERAGE(E$3:E$13)</f>
-        <v>1.0672509135805568</v>
-      </c>
-      <c r="F27" s="21">
-        <f t="shared" si="1"/>
-        <v>1.3714629988050542</v>
-      </c>
-      <c r="G27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1027460908391356</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.90368683254498972</v>
-      </c>
-      <c r="I27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.0866401813280693</v>
-      </c>
-      <c r="J27" s="21">
-        <f t="shared" si="1"/>
-        <v>1.4269272245199296</v>
-      </c>
-      <c r="K27" s="30">
-        <f t="shared" si="1"/>
-        <v>1.1434997594566845</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="19" t="e">
-        <f>B17/$C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="19">
-        <f>D17/$E17</f>
-        <v>0.87651168821379088</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="19">
-        <f>F17/$G17</f>
-        <v>0.97561979906614904</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="19">
-        <f>H17/$I17</f>
-        <v>1.0275278676132096</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19">
-        <f>J17/$K17</f>
-        <v>0.74286460213361372</v>
-      </c>
-      <c r="K31" s="31"/>
-      <c r="O31" s="1">
-        <f>AVERAGE(D31,F31,H31,J31)</f>
-        <v>0.90563098925669083</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20" t="e">
-        <f t="shared" ref="B32:B41" si="2">B18/$C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="20">
-        <f t="shared" ref="D32:D41" si="3">D18/$E18</f>
-        <v>1.0259788904510658</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20">
-        <f t="shared" ref="F32:F41" si="4">F18/$G18</f>
-        <v>1.1370935790247285</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="20">
-        <f t="shared" ref="H32:H41" si="5">H18/$I18</f>
-        <v>1.120915403723479</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="20">
-        <f t="shared" ref="J32:J41" si="6">J18/$K18</f>
-        <v>1.1826148142312272</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="O32" s="1">
-        <f t="shared" ref="O32:O41" si="7">AVERAGE(D32,F32,H32,J32)</f>
-        <v>1.1166506718576252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="20">
-        <f t="shared" si="3"/>
-        <v>1.9105065369497731</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="20">
-        <f t="shared" si="4"/>
-        <v>1.1482187305315095</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="20">
-        <f t="shared" si="5"/>
-        <v>1.4281890765492518</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2446495302566023</v>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="O33" s="1">
-        <f t="shared" si="7"/>
-        <v>1.4328909685717841</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="20">
-        <f t="shared" si="3"/>
-        <v>1.3870595316975107</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20">
-        <f t="shared" si="4"/>
-        <v>0.43580773160341574</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="20">
-        <f>H20/$I20</f>
-        <v>1.0002483393870294</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="20">
-        <f t="shared" si="6"/>
-        <v>1.1509765580904778</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="O34" s="1">
-        <f t="shared" si="7"/>
-        <v>0.99352304019460846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="20">
-        <f t="shared" si="3"/>
-        <v>1.3125932628306651</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="20">
-        <f>F21/$G21</f>
-        <v>1.2709601092141702</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="20">
-        <f t="shared" si="5"/>
-        <v>1.0900867367891935</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="20">
-        <f t="shared" si="6"/>
-        <v>1.1470390224524789</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="O35" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2051697828216268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4555211142432454</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20">
-        <f t="shared" si="4"/>
-        <v>0.75015269288833031</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="20">
-        <f t="shared" si="5"/>
-        <v>1.5467949179225302</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="20">
-        <f t="shared" si="6"/>
-        <v>1.2921637124744463</v>
-      </c>
-      <c r="K36" s="22"/>
-      <c r="O36" s="1">
-        <f t="shared" si="7"/>
-        <v>1.261158109382138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="20">
-        <f t="shared" si="3"/>
-        <v>1.2802408166682981</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="20">
-        <f t="shared" si="4"/>
-        <v>1.9654724204036298</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="20">
-        <f t="shared" si="5"/>
-        <v>1.3648025258990282</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="20">
-        <f t="shared" si="6"/>
-        <v>1.1227675217497219</v>
-      </c>
-      <c r="K37" s="22"/>
-      <c r="O37" s="1">
-        <f t="shared" si="7"/>
-        <v>1.4333208211801696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="20">
-        <f t="shared" si="3"/>
-        <v>0.57032009291883279</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="20">
-        <f t="shared" si="4"/>
-        <v>0.847374104897615</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="20">
-        <f t="shared" si="5"/>
-        <v>0.58963968662598276</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="20">
-        <f t="shared" si="6"/>
-        <v>0.54329102888242164</v>
-      </c>
-      <c r="K38" s="22"/>
-      <c r="O38" s="1">
-        <f t="shared" si="7"/>
-        <v>0.63765622833121305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="20">
-        <f t="shared" si="3"/>
-        <v>0.55899890314871592</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="20">
-        <f>F25/$G25</f>
-        <v>0.37248704022111562</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="20">
-        <f t="shared" si="5"/>
-        <v>0.49405629122023703</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="20">
-        <f t="shared" si="6"/>
-        <v>0.38709046203304931</v>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="O39" s="1">
-        <f t="shared" si="7"/>
-        <v>0.45315817415577947</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="20">
-        <f t="shared" si="3"/>
-        <v>0.59495594995325163</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="20">
-        <f t="shared" si="4"/>
-        <v>0.87599429755663638</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="20">
-        <f t="shared" si="5"/>
-        <v>0.48234311586561235</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="20">
-        <f>J26/$K26</f>
-        <v>0.90474506589769532</v>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="O40" s="1">
-        <f t="shared" si="7"/>
-        <v>0.71450960731829893</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="21">
-        <f t="shared" si="3"/>
-        <v>0.33734225806670309</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21">
-        <f t="shared" si="4"/>
-        <v>1.2436797647239342</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="21">
-        <f t="shared" si="5"/>
-        <v>0.83163391900391748</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="21">
-        <f t="shared" si="6"/>
-        <v>1.2478596630382424</v>
-      </c>
-      <c r="K41" s="23"/>
-      <c r="O41" s="1">
-        <f t="shared" si="7"/>
-        <v>0.91512890120819934</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12080,7 +11892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -12099,13 +11911,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
@@ -13058,7 +12870,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -13077,13 +12889,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="33"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="12" t="s">
         <v>26</v>
       </c>
@@ -13447,12 +13259,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -13465,6 +13271,12 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
